--- a/users/XiaodanLyu/feature_engineering/fct_relabel.xlsx
+++ b/users/XiaodanLyu/feature_engineering/fct_relabel.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
     <sheet name="brand" sheetId="2" r:id="rId2"/>
     <sheet name="size" sheetId="4" r:id="rId3"/>
-    <sheet name="brand_survey" sheetId="3" r:id="rId4"/>
-    <sheet name="brand_others" sheetId="5" r:id="rId5"/>
+    <sheet name="cut" sheetId="6" r:id="rId4"/>
+    <sheet name="brand_survey" sheetId="3" r:id="rId5"/>
+    <sheet name="brand_others" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="277">
   <si>
     <t>old_levels</t>
   </si>
@@ -866,6 +867,27 @@
   <si>
     <t>brand.competition</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>cut.reason</t>
+  </si>
+  <si>
+    <t>cut.break</t>
+  </si>
+  <si>
+    <t>rrp</t>
+  </si>
+  <si>
+    <t>cat1</t>
+  </si>
+  <si>
+    <t>cat2</t>
+  </si>
+  <si>
+    <t>cat3</t>
   </si>
 </sst>
 </file>
@@ -3044,7 +3066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -6643,6 +6665,92 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -6820,7 +6928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>

--- a/users/XiaodanLyu/feature_engineering/fct_relabel.xlsx
+++ b/users/XiaodanLyu/feature_engineering/fct_relabel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyux\odrive\Google Drive - Gmail\dmc2018\users\XiaodanLyu\feature_engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63139\Documents\GitHub\dmc2018\users\XiaodanLyu\feature_engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8237" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="296">
   <si>
     <t>old_levels</t>
   </si>
@@ -888,31 +888,107 @@
   </si>
   <si>
     <t>cat3</t>
+  </si>
+  <si>
+    <t>coldorwarm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rich</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutral</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutral</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutral</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutral</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>body.size</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fit.shape</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -920,7 +996,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -928,7 +1004,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -936,35 +1012,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -972,7 +1048,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -980,14 +1056,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -995,14 +1071,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1010,7 +1086,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1018,33 +1094,33 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,6 +1300,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1385,7 +1467,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1402,50 +1484,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1461,7 +1547,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1723,160 +1809,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>252</v>
+      </c>
+      <c r="F2">
+        <v>234</v>
+      </c>
+      <c r="G2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <v>169</v>
+      </c>
+      <c r="G3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>255</v>
+      </c>
+      <c r="F5">
+        <v>244</v>
+      </c>
+      <c r="G5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>224</v>
+      </c>
+      <c r="F6">
+        <v>191</v>
+      </c>
+      <c r="G6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>171</v>
+      </c>
+      <c r="F7">
+        <v>171</v>
+      </c>
+      <c r="G7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>142</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>186</v>
+      </c>
+      <c r="F9">
+        <v>158</v>
+      </c>
+      <c r="G9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>167</v>
+      </c>
+      <c r="F10">
+        <v>102</v>
+      </c>
+      <c r="G10">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>254</v>
+      </c>
+      <c r="F11">
+        <v>131</v>
+      </c>
+      <c r="G11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>239</v>
+      </c>
+      <c r="F12">
+        <v>163</v>
+      </c>
+      <c r="G12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>196</v>
+      </c>
+      <c r="F13">
+        <v>99</v>
+      </c>
+      <c r="G13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>248</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>229</v>
+      </c>
+      <c r="F16">
+        <v>231</v>
+      </c>
+      <c r="G16">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>233</v>
+      </c>
+      <c r="G17">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>255</v>
+      </c>
+      <c r="F18">
+        <v>255</v>
+      </c>
+      <c r="G18">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1893,25 +2250,25 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.15234375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.84375" customWidth="1"/>
+    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +2312,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1999,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2043,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2087,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2175,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2219,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -2263,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2307,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2351,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2395,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2439,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2483,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2527,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2571,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2615,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2659,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>260</v>
       </c>
@@ -2703,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2747,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -2791,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2835,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -2879,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2923,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2967,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -3011,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -3064,21 +3421,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.3828125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3828125" customWidth="1"/>
+    <col min="8" max="8" width="11.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3097,8 +3456,14 @@
       <c r="F1" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
@@ -3117,8 +3482,14 @@
       <c r="F2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>97</v>
       </c>
@@ -3137,8 +3508,14 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>99</v>
       </c>
@@ -3157,8 +3534,14 @@
       <c r="F4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
@@ -3177,8 +3560,14 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>104</v>
       </c>
@@ -3197,8 +3586,14 @@
       <c r="F6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -3217,8 +3612,14 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
@@ -3237,8 +3638,14 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>112</v>
       </c>
@@ -3257,8 +3664,14 @@
       <c r="F9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>113</v>
       </c>
@@ -3277,8 +3690,14 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>114</v>
       </c>
@@ -3297,8 +3716,14 @@
       <c r="F11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>116</v>
       </c>
@@ -3317,8 +3742,14 @@
       <c r="F12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>117</v>
       </c>
@@ -3337,8 +3768,14 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -3357,8 +3794,14 @@
       <c r="F14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>120</v>
       </c>
@@ -3377,8 +3820,14 @@
       <c r="F15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>121</v>
       </c>
@@ -3397,8 +3846,14 @@
       <c r="F16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>122</v>
       </c>
@@ -3417,8 +3872,14 @@
       <c r="F17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>124</v>
       </c>
@@ -3437,8 +3898,14 @@
       <c r="F18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>104</v>
       </c>
@@ -3457,8 +3924,14 @@
       <c r="F19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -3477,8 +3950,14 @@
       <c r="F20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>116</v>
       </c>
@@ -3497,8 +3976,14 @@
       <c r="F21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>127</v>
       </c>
@@ -3517,8 +4002,14 @@
       <c r="F22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>129</v>
       </c>
@@ -3537,8 +4028,14 @@
       <c r="F23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>130</v>
       </c>
@@ -3557,8 +4054,14 @@
       <c r="F24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>128</v>
       </c>
@@ -3577,8 +4080,14 @@
       <c r="F25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>134</v>
       </c>
@@ -3597,8 +4106,14 @@
       <c r="F26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>132</v>
       </c>
@@ -3617,8 +4132,14 @@
       <c r="F27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>133</v>
       </c>
@@ -3637,8 +4158,14 @@
       <c r="F28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>135</v>
       </c>
@@ -3657,8 +4184,14 @@
       <c r="F29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="5">
+        <v>3</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>140</v>
       </c>
@@ -3677,8 +4210,14 @@
       <c r="F30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>137</v>
       </c>
@@ -3697,8 +4236,14 @@
       <c r="F31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>146</v>
       </c>
@@ -3717,8 +4262,14 @@
       <c r="F32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>152</v>
       </c>
@@ -3737,8 +4288,14 @@
       <c r="F33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>158</v>
       </c>
@@ -3757,8 +4314,14 @@
       <c r="F34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="5">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>138</v>
       </c>
@@ -3777,8 +4340,14 @@
       <c r="F35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="5">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>164</v>
       </c>
@@ -3797,8 +4366,14 @@
       <c r="F36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="5">
+        <v>2</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>139</v>
       </c>
@@ -3817,8 +4392,14 @@
       <c r="F37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="5">
+        <v>2</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>176</v>
       </c>
@@ -3837,8 +4418,14 @@
       <c r="F38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="5">
+        <v>2</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>140</v>
       </c>
@@ -3857,8 +4444,14 @@
       <c r="F39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>2</v>
       </c>
@@ -3877,8 +4470,14 @@
       <c r="F40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>142</v>
       </c>
@@ -3897,8 +4496,14 @@
       <c r="F41" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>143</v>
       </c>
@@ -3917,8 +4522,14 @@
       <c r="F42" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>144</v>
       </c>
@@ -3937,8 +4548,14 @@
       <c r="F43" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>145</v>
       </c>
@@ -3957,8 +4574,14 @@
       <c r="F44" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>146</v>
       </c>
@@ -3977,8 +4600,14 @@
       <c r="F45" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>147</v>
       </c>
@@ -3997,8 +4626,14 @@
       <c r="F46" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>149</v>
       </c>
@@ -4017,8 +4652,14 @@
       <c r="F47" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="5">
+        <v>2</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>150</v>
       </c>
@@ -4037,8 +4678,14 @@
       <c r="F48" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="5">
+        <v>2</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>29</v>
       </c>
@@ -4057,8 +4704,14 @@
       <c r="F49" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>153</v>
       </c>
@@ -4077,8 +4730,14 @@
       <c r="F50" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="5">
+        <v>3</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>155</v>
       </c>
@@ -4097,8 +4756,14 @@
       <c r="F51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="5">
+        <v>2</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>3</v>
       </c>
@@ -4117,8 +4782,14 @@
       <c r="F52" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="5">
+        <v>1</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>156</v>
       </c>
@@ -4137,8 +4808,14 @@
       <c r="F53" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="5">
+        <v>2</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>157</v>
       </c>
@@ -4157,8 +4834,14 @@
       <c r="F54" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="5">
+        <v>2</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>158</v>
       </c>
@@ -4177,8 +4860,14 @@
       <c r="F55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="5">
+        <v>2</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>159</v>
       </c>
@@ -4197,8 +4886,14 @@
       <c r="F56" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>160</v>
       </c>
@@ -4217,8 +4912,14 @@
       <c r="F57" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>30</v>
       </c>
@@ -4237,8 +4938,14 @@
       <c r="F58" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>161</v>
       </c>
@@ -4257,8 +4964,14 @@
       <c r="F59" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="5">
+        <v>3</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>31</v>
       </c>
@@ -4277,8 +4990,14 @@
       <c r="F60" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>163</v>
       </c>
@@ -4297,8 +5016,14 @@
       <c r="F61" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>32</v>
       </c>
@@ -4317,8 +5042,14 @@
       <c r="F62" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="5">
+        <v>1</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>33</v>
       </c>
@@ -4337,8 +5068,14 @@
       <c r="F63" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>164</v>
       </c>
@@ -4357,8 +5094,14 @@
       <c r="F64" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>34</v>
       </c>
@@ -4377,8 +5120,14 @@
       <c r="F65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>35</v>
       </c>
@@ -4397,8 +5146,14 @@
       <c r="F66" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="5">
+        <v>1</v>
+      </c>
+      <c r="H66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>165</v>
       </c>
@@ -4417,8 +5172,14 @@
       <c r="F67" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>166</v>
       </c>
@@ -4437,8 +5198,14 @@
       <c r="F68" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="5">
+        <v>1</v>
+      </c>
+      <c r="H68" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>167</v>
       </c>
@@ -4457,8 +5224,14 @@
       <c r="F69" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="5">
+        <v>1</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>36</v>
       </c>
@@ -4477,8 +5250,14 @@
       <c r="F70" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="5">
+        <v>1</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>36.666666666666664</v>
       </c>
@@ -4497,8 +5276,14 @@
       <c r="F71" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="5">
+        <v>1</v>
+      </c>
+      <c r="H71" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>168</v>
       </c>
@@ -4517,8 +5302,14 @@
       <c r="F72" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="5">
+        <v>1</v>
+      </c>
+      <c r="H72" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>37</v>
       </c>
@@ -4537,8 +5328,14 @@
       <c r="F73" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="5">
+        <v>1</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>169</v>
       </c>
@@ -4557,8 +5354,14 @@
       <c r="F74" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>37.333333333333336</v>
       </c>
@@ -4577,8 +5380,14 @@
       <c r="F75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="5">
+        <v>1</v>
+      </c>
+      <c r="H75" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>170</v>
       </c>
@@ -4597,8 +5406,14 @@
       <c r="F76" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="5">
+        <v>1</v>
+      </c>
+      <c r="H76" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>38</v>
       </c>
@@ -4617,8 +5432,14 @@
       <c r="F77" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" s="5">
+        <v>1</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>38.666666666666664</v>
       </c>
@@ -4637,8 +5458,14 @@
       <c r="F78" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+      <c r="H78" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>171</v>
       </c>
@@ -4657,8 +5484,14 @@
       <c r="F79" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" s="5">
+        <v>1</v>
+      </c>
+      <c r="H79" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>172</v>
       </c>
@@ -4677,8 +5510,14 @@
       <c r="F80" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" s="5">
+        <v>2</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>39</v>
       </c>
@@ -4697,8 +5536,14 @@
       <c r="F81" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" s="5">
+        <v>1</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>173</v>
       </c>
@@ -4717,8 +5562,14 @@
       <c r="F82" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" s="5">
+        <v>2</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>39.333333333333336</v>
       </c>
@@ -4737,8 +5588,14 @@
       <c r="F83" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" s="5">
+        <v>1</v>
+      </c>
+      <c r="H83" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>174</v>
       </c>
@@ -4757,8 +5614,14 @@
       <c r="F84" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" s="5">
+        <v>2</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>175</v>
       </c>
@@ -4777,8 +5640,14 @@
       <c r="F85" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" s="5">
+        <v>1</v>
+      </c>
+      <c r="H85" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>176</v>
       </c>
@@ -4797,8 +5666,14 @@
       <c r="F86" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="5">
+        <v>2</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>177</v>
       </c>
@@ -4817,8 +5692,14 @@
       <c r="F87" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" s="5">
+        <v>3</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>178</v>
       </c>
@@ -4837,8 +5718,14 @@
       <c r="F88" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" s="5">
+        <v>2</v>
+      </c>
+      <c r="H88" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>4</v>
       </c>
@@ -4857,8 +5744,14 @@
       <c r="F89" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" s="5">
+        <v>1</v>
+      </c>
+      <c r="H89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>179</v>
       </c>
@@ -4877,8 +5770,14 @@
       <c r="F90" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" s="5">
+        <v>2</v>
+      </c>
+      <c r="H90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>180</v>
       </c>
@@ -4897,8 +5796,14 @@
       <c r="F91" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" s="5">
+        <v>2</v>
+      </c>
+      <c r="H91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>181</v>
       </c>
@@ -4917,8 +5822,14 @@
       <c r="F92" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="5">
+        <v>3</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>183</v>
       </c>
@@ -4937,8 +5848,14 @@
       <c r="F93" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" s="5">
+        <v>3</v>
+      </c>
+      <c r="H93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>40</v>
       </c>
@@ -4957,8 +5874,14 @@
       <c r="F94" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" s="5">
+        <v>2</v>
+      </c>
+      <c r="H94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>40.666666666666664</v>
       </c>
@@ -4977,8 +5900,14 @@
       <c r="F95" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" s="5">
+        <v>2</v>
+      </c>
+      <c r="H95" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>184</v>
       </c>
@@ -4997,8 +5926,14 @@
       <c r="F96" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="5">
+        <v>2</v>
+      </c>
+      <c r="H96" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>41</v>
       </c>
@@ -5017,8 +5952,14 @@
       <c r="F97" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" s="5">
+        <v>2</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>186</v>
       </c>
@@ -5037,8 +5978,14 @@
       <c r="F98" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" s="5">
+        <v>2</v>
+      </c>
+      <c r="H98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>41.333333333333336</v>
       </c>
@@ -5057,8 +6004,14 @@
       <c r="F99" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" s="5">
+        <v>2</v>
+      </c>
+      <c r="H99" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>187</v>
       </c>
@@ -5077,8 +6030,14 @@
       <c r="F100" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="5">
+        <v>2</v>
+      </c>
+      <c r="H100" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>42</v>
       </c>
@@ -5097,8 +6056,14 @@
       <c r="F101" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="5">
+        <v>2</v>
+      </c>
+      <c r="H101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>42.666666666666664</v>
       </c>
@@ -5117,8 +6082,14 @@
       <c r="F102" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="5">
+        <v>2</v>
+      </c>
+      <c r="H102" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>188</v>
       </c>
@@ -5137,8 +6108,14 @@
       <c r="F103" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" s="5">
+        <v>2</v>
+      </c>
+      <c r="H103" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>43</v>
       </c>
@@ -5157,8 +6134,14 @@
       <c r="F104" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" s="5">
+        <v>3</v>
+      </c>
+      <c r="H104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>189</v>
       </c>
@@ -5177,8 +6160,14 @@
       <c r="F105" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" s="5">
+        <v>3</v>
+      </c>
+      <c r="H105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>43.333333333333336</v>
       </c>
@@ -5197,8 +6186,14 @@
       <c r="F106" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" s="5">
+        <v>3</v>
+      </c>
+      <c r="H106" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>190</v>
       </c>
@@ -5217,8 +6212,14 @@
       <c r="F107" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" s="5">
+        <v>3</v>
+      </c>
+      <c r="H107" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>191</v>
       </c>
@@ -5237,8 +6238,14 @@
       <c r="F108" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" s="5">
+        <v>3</v>
+      </c>
+      <c r="H108" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>192</v>
       </c>
@@ -5257,8 +6264,14 @@
       <c r="F109" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" s="5">
+        <v>3</v>
+      </c>
+      <c r="H109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>44</v>
       </c>
@@ -5277,8 +6290,14 @@
       <c r="F110" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" s="5">
+        <v>3</v>
+      </c>
+      <c r="H110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>44.666666666666664</v>
       </c>
@@ -5297,8 +6316,14 @@
       <c r="F111" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" s="5">
+        <v>3</v>
+      </c>
+      <c r="H111" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>194</v>
       </c>
@@ -5317,8 +6342,14 @@
       <c r="F112" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" s="5">
+        <v>3</v>
+      </c>
+      <c r="H112" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>45</v>
       </c>
@@ -5337,8 +6368,14 @@
       <c r="F113" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" s="5">
+        <v>3</v>
+      </c>
+      <c r="H113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>195</v>
       </c>
@@ -5357,8 +6394,14 @@
       <c r="F114" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" s="5">
+        <v>3</v>
+      </c>
+      <c r="H114" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>45.333333333333336</v>
       </c>
@@ -5377,8 +6420,14 @@
       <c r="F115" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" s="5">
+        <v>3</v>
+      </c>
+      <c r="H115" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>196</v>
       </c>
@@ -5397,8 +6446,14 @@
       <c r="F116" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" s="5">
+        <v>3</v>
+      </c>
+      <c r="H116" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>197</v>
       </c>
@@ -5417,8 +6472,14 @@
       <c r="F117" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" s="5">
+        <v>3</v>
+      </c>
+      <c r="H117" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>46</v>
       </c>
@@ -5437,8 +6498,14 @@
       <c r="F118" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" s="5">
+        <v>3</v>
+      </c>
+      <c r="H118" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>46.666666666666664</v>
       </c>
@@ -5457,8 +6524,14 @@
       <c r="F119" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" s="5">
+        <v>3</v>
+      </c>
+      <c r="H119" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>198</v>
       </c>
@@ -5477,8 +6550,14 @@
       <c r="F120" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" s="5">
+        <v>3</v>
+      </c>
+      <c r="H120" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>47</v>
       </c>
@@ -5497,8 +6576,14 @@
       <c r="F121" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" s="5">
+        <v>3</v>
+      </c>
+      <c r="H121" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>199</v>
       </c>
@@ -5517,8 +6602,14 @@
       <c r="F122" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" s="5">
+        <v>3</v>
+      </c>
+      <c r="H122" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>47.333333333333336</v>
       </c>
@@ -5537,8 +6628,14 @@
       <c r="F123" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" s="5">
+        <v>3</v>
+      </c>
+      <c r="H123" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>200</v>
       </c>
@@ -5557,8 +6654,14 @@
       <c r="F124" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" s="5">
+        <v>3</v>
+      </c>
+      <c r="H124" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>201</v>
       </c>
@@ -5577,8 +6680,14 @@
       <c r="F125" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" s="5">
+        <v>3</v>
+      </c>
+      <c r="H125" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>48</v>
       </c>
@@ -5597,8 +6706,14 @@
       <c r="F126" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" s="5">
+        <v>3</v>
+      </c>
+      <c r="H126" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>48.666666666666664</v>
       </c>
@@ -5617,8 +6732,14 @@
       <c r="F127" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" s="5">
+        <v>3</v>
+      </c>
+      <c r="H127" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>202</v>
       </c>
@@ -5637,8 +6758,14 @@
       <c r="F128" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" s="5">
+        <v>3</v>
+      </c>
+      <c r="H128" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>203</v>
       </c>
@@ -5657,8 +6784,14 @@
       <c r="F129" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" s="5">
+        <v>3</v>
+      </c>
+      <c r="H129" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>5</v>
       </c>
@@ -5677,8 +6810,14 @@
       <c r="F130" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" s="5">
+        <v>2</v>
+      </c>
+      <c r="H130" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>205</v>
       </c>
@@ -5697,8 +6836,14 @@
       <c r="F131" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" s="5">
+        <v>2</v>
+      </c>
+      <c r="H131" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>206</v>
       </c>
@@ -5717,8 +6862,14 @@
       <c r="F132" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" s="5">
+        <v>2</v>
+      </c>
+      <c r="H132" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>207</v>
       </c>
@@ -5737,8 +6888,14 @@
       <c r="F133" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" s="5">
+        <v>2</v>
+      </c>
+      <c r="H133" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>6</v>
       </c>
@@ -5757,8 +6914,14 @@
       <c r="F134" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" s="5">
+        <v>2</v>
+      </c>
+      <c r="H134" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>208</v>
       </c>
@@ -5777,8 +6940,14 @@
       <c r="F135" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" s="5">
+        <v>3</v>
+      </c>
+      <c r="H135" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>209</v>
       </c>
@@ -5797,8 +6966,14 @@
       <c r="F136" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" s="5">
+        <v>1</v>
+      </c>
+      <c r="H136" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>7</v>
       </c>
@@ -5817,8 +6992,14 @@
       <c r="F137" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" s="5">
+        <v>2</v>
+      </c>
+      <c r="H137" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>210</v>
       </c>
@@ -5837,8 +7018,14 @@
       <c r="F138" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" s="5">
+        <v>2</v>
+      </c>
+      <c r="H138" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>8</v>
       </c>
@@ -5857,8 +7044,14 @@
       <c r="F139" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" s="5">
+        <v>2</v>
+      </c>
+      <c r="H139" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>212</v>
       </c>
@@ -5877,8 +7070,14 @@
       <c r="F140" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" s="5">
+        <v>3</v>
+      </c>
+      <c r="H140" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>9</v>
       </c>
@@ -5897,8 +7096,14 @@
       <c r="F141" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" s="5">
+        <v>2</v>
+      </c>
+      <c r="H141" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>118</v>
       </c>
@@ -5917,8 +7122,14 @@
       <c r="F142" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" s="5">
+        <v>2</v>
+      </c>
+      <c r="H142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>214</v>
       </c>
@@ -5937,8 +7148,14 @@
       <c r="F143" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" s="5">
+        <v>2</v>
+      </c>
+      <c r="H143" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>216</v>
       </c>
@@ -5957,8 +7174,14 @@
       <c r="F144" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" s="5">
+        <v>2</v>
+      </c>
+      <c r="H144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>217</v>
       </c>
@@ -5977,8 +7200,14 @@
       <c r="F145" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" s="5">
+        <v>2</v>
+      </c>
+      <c r="H145" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>218</v>
       </c>
@@ -5997,8 +7226,14 @@
       <c r="F146" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" s="5">
+        <v>2</v>
+      </c>
+      <c r="H146" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>219</v>
       </c>
@@ -6017,8 +7252,14 @@
       <c r="F147" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" s="5">
+        <v>2</v>
+      </c>
+      <c r="H147" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>220</v>
       </c>
@@ -6037,8 +7278,14 @@
       <c r="F148" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" s="5">
+        <v>2</v>
+      </c>
+      <c r="H148" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>221</v>
       </c>
@@ -6057,8 +7304,14 @@
       <c r="F149" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" s="5">
+        <v>1</v>
+      </c>
+      <c r="H149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>223</v>
       </c>
@@ -6077,8 +7330,14 @@
       <c r="F150" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" s="5">
+        <v>1</v>
+      </c>
+      <c r="H150" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>224</v>
       </c>
@@ -6097,8 +7356,14 @@
       <c r="F151" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" s="5">
+        <v>3</v>
+      </c>
+      <c r="H151" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>106</v>
       </c>
@@ -6117,8 +7382,14 @@
       <c r="F152" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" s="5">
+        <v>2</v>
+      </c>
+      <c r="H152" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>225</v>
       </c>
@@ -6137,8 +7408,14 @@
       <c r="F153" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" s="5">
+        <v>1</v>
+      </c>
+      <c r="H153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>227</v>
       </c>
@@ -6157,8 +7434,14 @@
       <c r="F154" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" s="5">
+        <v>1</v>
+      </c>
+      <c r="H154" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>228</v>
       </c>
@@ -6177,8 +7460,14 @@
       <c r="F155" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" s="5">
+        <v>1</v>
+      </c>
+      <c r="H155" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>229</v>
       </c>
@@ -6197,8 +7486,14 @@
       <c r="F156" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" s="5">
+        <v>1</v>
+      </c>
+      <c r="H156" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>230</v>
       </c>
@@ -6217,8 +7512,14 @@
       <c r="F157" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" s="5">
+        <v>1</v>
+      </c>
+      <c r="H157" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>231</v>
       </c>
@@ -6237,8 +7538,14 @@
       <c r="F158" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" s="5">
+        <v>2</v>
+      </c>
+      <c r="H158" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>111</v>
       </c>
@@ -6257,8 +7564,14 @@
       <c r="F159" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" s="5">
+        <v>1</v>
+      </c>
+      <c r="H159" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>232</v>
       </c>
@@ -6277,8 +7590,14 @@
       <c r="F160" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" s="5">
+        <v>1</v>
+      </c>
+      <c r="H160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>234</v>
       </c>
@@ -6297,8 +7616,14 @@
       <c r="F161" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" s="5">
+        <v>2</v>
+      </c>
+      <c r="H161" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>235</v>
       </c>
@@ -6317,8 +7642,14 @@
       <c r="F162" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" s="5">
+        <v>2</v>
+      </c>
+      <c r="H162" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>236</v>
       </c>
@@ -6337,8 +7668,14 @@
       <c r="F163" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" s="5">
+        <v>2</v>
+      </c>
+      <c r="H163" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>109</v>
       </c>
@@ -6357,8 +7694,14 @@
       <c r="F164" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" s="5">
+        <v>3</v>
+      </c>
+      <c r="H164" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>238</v>
       </c>
@@ -6377,8 +7720,14 @@
       <c r="F165" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165" s="5">
+        <v>3</v>
+      </c>
+      <c r="H165" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>240</v>
       </c>
@@ -6397,8 +7746,14 @@
       <c r="F166" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166" s="5">
+        <v>3</v>
+      </c>
+      <c r="H166" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>241</v>
       </c>
@@ -6417,8 +7772,14 @@
       <c r="F167" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" s="5">
+        <v>3</v>
+      </c>
+      <c r="H167" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>242</v>
       </c>
@@ -6437,8 +7798,14 @@
       <c r="F168" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168" s="5">
+        <v>3</v>
+      </c>
+      <c r="H168" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>243</v>
       </c>
@@ -6457,8 +7824,14 @@
       <c r="F169" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169" s="5">
+        <v>2</v>
+      </c>
+      <c r="H169" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>96</v>
       </c>
@@ -6477,8 +7850,14 @@
       <c r="F170" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170" s="5">
+        <v>1</v>
+      </c>
+      <c r="H170" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>244</v>
       </c>
@@ -6497,8 +7876,14 @@
       <c r="F171" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171" s="5">
+        <v>1</v>
+      </c>
+      <c r="H171" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>246</v>
       </c>
@@ -6517,8 +7902,14 @@
       <c r="F172" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172" s="5">
+        <v>1</v>
+      </c>
+      <c r="H172" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>247</v>
       </c>
@@ -6537,8 +7928,14 @@
       <c r="F173" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" s="5">
+        <v>1</v>
+      </c>
+      <c r="H173" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>248</v>
       </c>
@@ -6557,8 +7954,14 @@
       <c r="F174" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" s="5">
+        <v>1</v>
+      </c>
+      <c r="H174" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>249</v>
       </c>
@@ -6577,8 +7980,14 @@
       <c r="F175" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" s="5">
+        <v>1</v>
+      </c>
+      <c r="H175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>250</v>
       </c>
@@ -6597,8 +8006,14 @@
       <c r="F176" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176" s="5">
+        <v>2</v>
+      </c>
+      <c r="H176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>252</v>
       </c>
@@ -6617,8 +8032,14 @@
       <c r="F177" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177" s="5">
+        <v>1</v>
+      </c>
+      <c r="H177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>254</v>
       </c>
@@ -6637,8 +8058,14 @@
       <c r="F178" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178" s="5">
+        <v>1</v>
+      </c>
+      <c r="H178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>256</v>
       </c>
@@ -6656,6 +8083,12 @@
       </c>
       <c r="F179" s="5">
         <v>1</v>
+      </c>
+      <c r="G179" s="5">
+        <v>2</v>
+      </c>
+      <c r="H179" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6668,16 +8101,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>270</v>
       </c>
@@ -6688,7 +8121,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -6699,17 +8132,17 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>48.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>275</v>
       </c>
@@ -6717,17 +8150,17 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>44.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>276</v>
       </c>
@@ -6735,18 +8168,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>82.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>222</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6755,15 +8190,15 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>2014</v>
       </c>
@@ -6777,7 +8212,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6797,7 +8232,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6817,7 +8252,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6837,7 +8272,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6857,7 +8292,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>17</v>
       </c>
@@ -6877,7 +8312,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19</v>
       </c>
@@ -6897,7 +8332,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>22</v>
       </c>
@@ -6917,7 +8352,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -6936,13 +8371,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6950,7 +8385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -6958,7 +8393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -6966,7 +8401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -6974,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -6982,12 +8417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -6995,7 +8430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -7003,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -7011,7 +8446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -7019,7 +8454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -7027,7 +8462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -7035,12 +8470,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -7048,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -7056,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -7064,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -7072,12 +8507,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -7085,7 +8520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -7093,7 +8528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -7101,7 +8536,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -7109,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -7117,7 +8552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -7125,7 +8560,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -7133,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -7142,6 +8577,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/users/XiaodanLyu/feature_engineering/fct_relabel.xlsx
+++ b/users/XiaodanLyu/feature_engineering/fct_relabel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8237" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8237" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="297">
   <si>
     <t>old_levels</t>
   </si>
@@ -963,6 +963,10 @@
   </si>
   <si>
     <t>fit.shape</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3423,7 +3427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -8099,10 +8103,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -8176,6 +8180,34 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>107.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>132.99</v>
       </c>
     </row>
   </sheetData>

--- a/users/XiaodanLyu/feature_engineering/fct_relabel.xlsx
+++ b/users/XiaodanLyu/feature_engineering/fct_relabel.xlsx
@@ -5,31 +5,31 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63139\Documents\GitHub\dmc2018\users\XiaodanLyu\feature_engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyux\odrive\Google Drive - Gmail\dmc2018\users\XiaodanLyu\feature_engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8237" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="698" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
     <sheet name="brand" sheetId="2" r:id="rId2"/>
     <sheet name="size" sheetId="4" r:id="rId3"/>
-    <sheet name="cut" sheetId="6" r:id="rId4"/>
-    <sheet name="brand_survey" sheetId="3" r:id="rId5"/>
-    <sheet name="brand_others" sheetId="5" r:id="rId6"/>
+    <sheet name="mainCategory" sheetId="8" r:id="rId4"/>
+    <sheet name="category" sheetId="9" r:id="rId5"/>
+    <sheet name="subCategory" sheetId="10" r:id="rId6"/>
+    <sheet name="cut" sheetId="6" r:id="rId7"/>
+    <sheet name="brand_survey" sheetId="3" r:id="rId8"/>
+    <sheet name="brand_others" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="309">
   <si>
     <t>old_levels</t>
-  </si>
-  <si>
-    <t>new_levles</t>
   </si>
   <si>
     <t>beige</t>
@@ -331,9 +331,6 @@
     <t>size4</t>
   </si>
   <si>
-    <t>child.cloth</t>
-  </si>
-  <si>
     <t>0 ( 128 )</t>
   </si>
   <si>
@@ -872,9 +869,6 @@
     <t>var</t>
   </si>
   <si>
-    <t>cut.reason</t>
-  </si>
-  <si>
     <t>cut.break</t>
   </si>
   <si>
@@ -888,26 +882,6 @@
   </si>
   <si>
     <t>cat3</t>
-  </si>
-  <si>
-    <t>coldorwarm</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rich</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>warm</t>
@@ -958,41 +932,102 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>body.size</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fit.shape</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>cat4</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>humanlearning</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>color.coldorwarm</t>
+  </si>
+  <si>
+    <t>color.eng</t>
+  </si>
+  <si>
+    <t>color.rich</t>
+  </si>
+  <si>
+    <t>color.R</t>
+  </si>
+  <si>
+    <t>color.G</t>
+  </si>
+  <si>
+    <t>color.B</t>
+  </si>
+  <si>
+    <t>size.child.cloth</t>
+  </si>
+  <si>
+    <t>size.body</t>
+  </si>
+  <si>
+    <t>size.shape</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>top1</t>
+  </si>
+  <si>
+    <t>top5</t>
+  </si>
+  <si>
+    <t>top7</t>
+  </si>
+  <si>
+    <t>top2</t>
+  </si>
+  <si>
+    <t>top3</t>
+  </si>
+  <si>
+    <t>top4</t>
+  </si>
+  <si>
+    <t>top6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\&quot;@\&quot;"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1000,7 +1035,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1008,7 +1043,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1016,35 +1051,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1052,7 +1087,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1060,14 +1095,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1075,14 +1110,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1090,7 +1125,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1098,27 +1133,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1471,7 +1506,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1482,9 +1517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1492,50 +1524,54 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1551,7 +1587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1816,51 +1852,51 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.765625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>252</v>
@@ -1872,18 +1908,18 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>66</v>
@@ -1895,18 +1931,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>134</v>
@@ -1918,18 +1954,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>255</v>
@@ -1941,18 +1977,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>224</v>
@@ -1964,18 +2000,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>171</v>
@@ -1987,18 +2023,18 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>96</v>
@@ -2010,18 +2046,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>186</v>
@@ -2033,18 +2069,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>167</v>
@@ -2056,18 +2092,18 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>254</v>
@@ -2079,18 +2115,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>239</v>
@@ -2102,18 +2138,18 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>196</v>
@@ -2125,18 +2161,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>248</v>
@@ -2148,41 +2184,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>229</v>
@@ -2194,18 +2230,18 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2217,18 +2253,18 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>255</v>
@@ -2250,1169 +2286,1169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.84375" customWidth="1"/>
-    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.15234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.15234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.15234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.3046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.3046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.3828125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="6">
+        <v>56</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6</v>
+      </c>
+      <c r="G17" s="6">
+        <v>9</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
         <v>258</v>
       </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F19" s="6">
+        <v>18</v>
+      </c>
+      <c r="G19" s="6">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>6</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="7">
-        <v>4</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1</v>
-      </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>5</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>12</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>1</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>259</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C26" t="s">
         <v>71</v>
       </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7">
-        <v>6</v>
-      </c>
-      <c r="G17" s="7">
-        <v>9</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
-      <c r="L17" s="7">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19" s="7">
-        <v>18</v>
-      </c>
-      <c r="G19" s="7">
-        <v>10</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
-      <c r="L19" s="7">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24">
-        <v>7</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>1</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>6</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
-        <v>1</v>
-      </c>
-      <c r="K25" s="7">
-        <v>1</v>
-      </c>
-      <c r="L25" s="7">
-        <v>1</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7">
-        <v>1</v>
-      </c>
-      <c r="L26" s="7">
-        <v>1</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
+      <c r="E26" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3428,48 +3464,49 @@
   <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.53515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.3828125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3828125" customWidth="1"/>
-    <col min="8" max="8" width="11.53515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="B2" s="5">
         <v>128</v>
@@ -3481,151 +3518,151 @@
         <v>128</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="B8" s="5">
         <v>140</v>
@@ -3637,134 +3674,134 @@
         <v>140</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -3779,35 +3816,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+    <row r="14" spans="1:8">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
       <c r="B14" s="5">
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="B15" s="5">
         <v>140</v>
@@ -3819,7 +3856,7 @@
         <v>140</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -3831,73 +3868,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -3909,8 +3946,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" spans="1:8">
+      <c r="A19" s="9">
         <v>104</v>
       </c>
       <c r="B19" s="5">
@@ -3923,7 +3960,7 @@
         <v>104</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -3935,21 +3972,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+    <row r="20" spans="1:8">
+      <c r="A20" s="9">
         <v>11</v>
       </c>
       <c r="B20" s="5">
         <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
@@ -3961,8 +3998,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" spans="1:8">
+      <c r="A21" s="9">
         <v>116</v>
       </c>
       <c r="B21" s="5">
@@ -3975,7 +4012,7 @@
         <v>116</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -3987,70 +4024,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="5">
         <v>3</v>
@@ -4065,8 +4102,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:8">
+      <c r="A25" s="9">
         <v>128</v>
       </c>
       <c r="B25" s="5">
@@ -4079,7 +4116,7 @@
         <v>128</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
@@ -4091,8 +4128,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="26" spans="1:8">
+      <c r="A26" s="9">
         <v>134</v>
       </c>
       <c r="B26" s="5">
@@ -4105,7 +4142,7 @@
         <v>134</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -4117,9 +4154,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>132</v>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="B27" s="5">
         <v>164</v>
@@ -4131,7 +4168,7 @@
         <v>164</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
@@ -4143,18 +4180,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>133</v>
+    <row r="28" spans="1:8">
+      <c r="A28" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E28" s="5">
         <v>5</v>
@@ -4169,21 +4206,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>135</v>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
@@ -4195,8 +4232,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+    <row r="30" spans="1:8">
+      <c r="A30" s="9">
         <v>140</v>
       </c>
       <c r="B30" s="5">
@@ -4209,7 +4246,7 @@
         <v>140</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
@@ -4221,21 +4258,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>137</v>
+    <row r="31" spans="1:8">
+      <c r="A31" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
@@ -4247,8 +4284,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="32" spans="1:8">
+      <c r="A32" s="9">
         <v>146</v>
       </c>
       <c r="B32" s="5">
@@ -4261,7 +4298,7 @@
         <v>146</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
@@ -4273,8 +4310,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="33" spans="1:8">
+      <c r="A33" s="9">
         <v>152</v>
       </c>
       <c r="B33" s="5">
@@ -4287,7 +4324,7 @@
         <v>152</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
@@ -4299,8 +4336,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="34" spans="1:8">
+      <c r="A34" s="9">
         <v>158</v>
       </c>
       <c r="B34" s="5">
@@ -4313,7 +4350,7 @@
         <v>158</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F34" s="5">
         <v>1</v>
@@ -4325,9 +4362,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>138</v>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="B35" s="5">
         <v>176</v>
@@ -4339,7 +4376,7 @@
         <v>176</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35" s="5">
         <v>1</v>
@@ -4351,8 +4388,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+    <row r="36" spans="1:8">
+      <c r="A36" s="9">
         <v>164</v>
       </c>
       <c r="B36" s="5">
@@ -4365,7 +4402,7 @@
         <v>164</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
@@ -4377,21 +4414,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>139</v>
+    <row r="37" spans="1:8">
+      <c r="A37" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -4403,8 +4440,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="38" spans="1:8">
+      <c r="A38" s="9">
         <v>176</v>
       </c>
       <c r="B38" s="5">
@@ -4417,7 +4454,7 @@
         <v>176</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
@@ -4429,9 +4466,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>140</v>
+    <row r="39" spans="1:8">
+      <c r="A39" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="B39" s="5">
         <v>38</v>
@@ -4440,10 +4477,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
@@ -4455,21 +4492,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="40" spans="1:8">
+      <c r="A40" s="9">
         <v>2</v>
       </c>
       <c r="B40" s="5">
         <v>2</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
@@ -4481,9 +4518,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>142</v>
+    <row r="41" spans="1:8">
+      <c r="A41" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="B41" s="5">
         <v>152</v>
@@ -4495,7 +4532,7 @@
         <v>152</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -4507,177 +4544,177 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
-      <c r="H42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="B44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="B45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="5">
-        <v>2</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="C46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="5">
-        <v>2</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5">
-        <v>2</v>
-      </c>
-      <c r="H47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
@@ -4689,8 +4726,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+    <row r="49" spans="1:8">
+      <c r="A49" s="9">
         <v>29</v>
       </c>
       <c r="B49" s="5">
@@ -4700,36 +4737,36 @@
         <v>29</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="C50" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
@@ -4741,21 +4778,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>155</v>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
@@ -4767,21 +4804,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+    <row r="52" spans="1:8">
+      <c r="A52" s="9">
         <v>3</v>
       </c>
       <c r="B52" s="5">
         <v>3</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
@@ -4793,9 +4830,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>156</v>
+    <row r="53" spans="1:8">
+      <c r="A53" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="B53" s="5">
         <v>164</v>
@@ -4807,7 +4844,7 @@
         <v>164</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F53" s="5">
         <v>1</v>
@@ -4819,18 +4856,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>157</v>
+    <row r="54" spans="1:8">
+      <c r="A54" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="5">
         <v>3</v>
@@ -4845,18 +4882,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>158</v>
+    <row r="55" spans="1:8">
+      <c r="A55" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" s="5">
         <v>3</v>
@@ -4871,18 +4908,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>159</v>
+    <row r="56" spans="1:8">
+      <c r="A56" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E56" s="5">
         <v>3</v>
@@ -4897,18 +4934,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>160</v>
+    <row r="57" spans="1:8">
+      <c r="A57" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -4923,8 +4960,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
+    <row r="58" spans="1:8">
+      <c r="A58" s="9">
         <v>30</v>
       </c>
       <c r="B58" s="5">
@@ -4934,7 +4971,7 @@
         <v>30</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E58" s="5">
         <v>0</v>
@@ -4949,21 +4986,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>161</v>
+    <row r="59" spans="1:8">
+      <c r="A59" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
@@ -4975,8 +5012,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
+    <row r="60" spans="1:8">
+      <c r="A60" s="9">
         <v>31</v>
       </c>
       <c r="B60" s="5">
@@ -4986,7 +5023,7 @@
         <v>31</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E60" s="5">
         <v>0</v>
@@ -5001,9 +5038,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>163</v>
+    <row r="61" spans="1:8">
+      <c r="A61" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="B61" s="5">
         <v>31</v>
@@ -5012,7 +5049,7 @@
         <v>31</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E61" s="5">
         <v>0</v>
@@ -5027,8 +5064,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
+    <row r="62" spans="1:8">
+      <c r="A62" s="9">
         <v>32</v>
       </c>
       <c r="B62" s="5">
@@ -5038,7 +5075,7 @@
         <v>32</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
@@ -5053,8 +5090,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
+    <row r="63" spans="1:8">
+      <c r="A63" s="9">
         <v>33</v>
       </c>
       <c r="B63" s="5">
@@ -5064,7 +5101,7 @@
         <v>33</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -5079,9 +5116,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>164</v>
+    <row r="64" spans="1:8">
+      <c r="A64" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="B64" s="5">
         <v>33</v>
@@ -5090,7 +5127,7 @@
         <v>33</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
@@ -5105,8 +5142,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
+    <row r="65" spans="1:8">
+      <c r="A65" s="9">
         <v>34</v>
       </c>
       <c r="B65" s="5">
@@ -5116,7 +5153,7 @@
         <v>34</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -5131,8 +5168,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
+    <row r="66" spans="1:8">
+      <c r="A66" s="9">
         <v>35</v>
       </c>
       <c r="B66" s="5">
@@ -5142,7 +5179,7 @@
         <v>35</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
@@ -5157,18 +5194,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>165</v>
+    <row r="67" spans="1:8">
+      <c r="A67" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -5183,9 +5220,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>166</v>
+    <row r="68" spans="1:8">
+      <c r="A68" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="B68" s="5">
         <v>35</v>
@@ -5194,7 +5231,7 @@
         <v>35</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -5209,18 +5246,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>167</v>
+    <row r="69" spans="1:8">
+      <c r="A69" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -5235,8 +5272,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="5">
+    <row r="70" spans="1:8">
+      <c r="A70" s="9">
         <v>36</v>
       </c>
       <c r="B70" s="5">
@@ -5246,7 +5283,7 @@
         <v>36</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
@@ -5261,8 +5298,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="6">
+    <row r="71" spans="1:8">
+      <c r="A71" s="9">
         <v>36.666666666666664</v>
       </c>
       <c r="B71" s="5">
@@ -5272,7 +5309,7 @@
         <v>36</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -5287,9 +5324,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>168</v>
+    <row r="72" spans="1:8">
+      <c r="A72" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="B72" s="5">
         <v>36</v>
@@ -5298,7 +5335,7 @@
         <v>36</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
@@ -5313,8 +5350,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
+    <row r="73" spans="1:8">
+      <c r="A73" s="9">
         <v>37</v>
       </c>
       <c r="B73" s="5">
@@ -5324,7 +5361,7 @@
         <v>37</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
@@ -5339,18 +5376,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>169</v>
+    <row r="74" spans="1:8">
+      <c r="A74" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E74" s="5">
         <v>2</v>
@@ -5365,8 +5402,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
+    <row r="75" spans="1:8">
+      <c r="A75" s="9">
         <v>37.333333333333336</v>
       </c>
       <c r="B75" s="5">
@@ -5376,7 +5413,7 @@
         <v>37</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -5391,9 +5428,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>170</v>
+    <row r="76" spans="1:8">
+      <c r="A76" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="B76" s="5">
         <v>37</v>
@@ -5402,7 +5439,7 @@
         <v>37</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E76" s="5">
         <v>1</v>
@@ -5417,8 +5454,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="5">
+    <row r="77" spans="1:8">
+      <c r="A77" s="9">
         <v>38</v>
       </c>
       <c r="B77" s="5">
@@ -5428,7 +5465,7 @@
         <v>38</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E77" s="5">
         <v>1</v>
@@ -5443,8 +5480,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+    <row r="78" spans="1:8">
+      <c r="A78" s="9">
         <v>38.666666666666664</v>
       </c>
       <c r="B78" s="5">
@@ -5454,7 +5491,7 @@
         <v>38</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E78" s="5">
         <v>1</v>
@@ -5469,9 +5506,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>171</v>
+    <row r="79" spans="1:8">
+      <c r="A79" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="B79" s="5">
         <v>38</v>
@@ -5480,7 +5517,7 @@
         <v>38</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E79" s="5">
         <v>1</v>
@@ -5495,21 +5532,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>172</v>
+    <row r="80" spans="1:8">
+      <c r="A80" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
@@ -5521,8 +5558,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="5">
+    <row r="81" spans="1:8">
+      <c r="A81" s="9">
         <v>39</v>
       </c>
       <c r="B81" s="5">
@@ -5532,7 +5569,7 @@
         <v>39</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E81" s="5">
         <v>2</v>
@@ -5547,18 +5584,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>173</v>
+    <row r="82" spans="1:8">
+      <c r="A82" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E82" s="5">
         <v>3</v>
@@ -5573,8 +5610,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
+    <row r="83" spans="1:8">
+      <c r="A83" s="9">
         <v>39.333333333333336</v>
       </c>
       <c r="B83" s="5">
@@ -5584,7 +5621,7 @@
         <v>39</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E83" s="5">
         <v>2</v>
@@ -5599,18 +5636,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>174</v>
+    <row r="84" spans="1:8">
+      <c r="A84" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E84" s="5">
         <v>3</v>
@@ -5625,9 +5662,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>175</v>
+    <row r="85" spans="1:8">
+      <c r="A85" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="B85" s="5">
         <v>39</v>
@@ -5636,7 +5673,7 @@
         <v>39</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E85" s="5">
         <v>2</v>
@@ -5651,18 +5688,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>176</v>
+    <row r="86" spans="1:8">
+      <c r="A86" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E86" s="5">
         <v>3</v>
@@ -5677,21 +5714,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>177</v>
+    <row r="87" spans="1:8">
+      <c r="A87" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F87" s="5">
         <v>0</v>
@@ -5703,21 +5740,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>178</v>
+    <row r="88" spans="1:8">
+      <c r="A88" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
@@ -5729,21 +5766,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="5">
+    <row r="89" spans="1:8">
+      <c r="A89" s="9">
         <v>4</v>
       </c>
       <c r="B89" s="5">
         <v>4</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
@@ -5755,18 +5792,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>179</v>
+    <row r="90" spans="1:8">
+      <c r="A90" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E90" s="5">
         <v>3</v>
@@ -5781,18 +5818,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>180</v>
+    <row r="91" spans="1:8">
+      <c r="A91" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E91" s="5">
         <v>4</v>
@@ -5807,18 +5844,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>181</v>
+    <row r="92" spans="1:8">
+      <c r="A92" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E92" s="5">
         <v>4</v>
@@ -5833,18 +5870,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>183</v>
+    <row r="93" spans="1:8">
+      <c r="A93" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E93" s="5">
         <v>4</v>
@@ -5859,8 +5896,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="5">
+    <row r="94" spans="1:8">
+      <c r="A94" s="9">
         <v>40</v>
       </c>
       <c r="B94" s="5">
@@ -5870,7 +5907,7 @@
         <v>40</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E94" s="5">
         <v>2</v>
@@ -5885,8 +5922,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+    <row r="95" spans="1:8">
+      <c r="A95" s="9">
         <v>40.666666666666664</v>
       </c>
       <c r="B95" s="5">
@@ -5896,7 +5933,7 @@
         <v>40</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E95" s="5">
         <v>2</v>
@@ -5911,9 +5948,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>184</v>
+    <row r="96" spans="1:8">
+      <c r="A96" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="B96" s="5">
         <v>40</v>
@@ -5922,7 +5959,7 @@
         <v>40</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E96" s="5">
         <v>2</v>
@@ -5937,8 +5974,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="5">
+    <row r="97" spans="1:8">
+      <c r="A97" s="9">
         <v>41</v>
       </c>
       <c r="B97" s="5">
@@ -5948,7 +5985,7 @@
         <v>41</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E97" s="5">
         <v>3</v>
@@ -5963,18 +6000,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>186</v>
+    <row r="98" spans="1:8">
+      <c r="A98" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E98" s="5">
         <v>3</v>
@@ -5989,8 +6026,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
+    <row r="99" spans="1:8">
+      <c r="A99" s="9">
         <v>41.333333333333336</v>
       </c>
       <c r="B99" s="5">
@@ -6000,7 +6037,7 @@
         <v>41</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E99" s="5">
         <v>3</v>
@@ -6015,9 +6052,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>187</v>
+    <row r="100" spans="1:8">
+      <c r="A100" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="B100" s="5">
         <v>41</v>
@@ -6026,7 +6063,7 @@
         <v>41</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E100" s="5">
         <v>3</v>
@@ -6041,8 +6078,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="5">
+    <row r="101" spans="1:8">
+      <c r="A101" s="9">
         <v>42</v>
       </c>
       <c r="B101" s="5">
@@ -6052,7 +6089,7 @@
         <v>42</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E101" s="5">
         <v>3</v>
@@ -6067,8 +6104,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
+    <row r="102" spans="1:8">
+      <c r="A102" s="9">
         <v>42.666666666666664</v>
       </c>
       <c r="B102" s="5">
@@ -6078,7 +6115,7 @@
         <v>42</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E102" s="5">
         <v>3</v>
@@ -6093,9 +6130,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>188</v>
+    <row r="103" spans="1:8">
+      <c r="A103" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="B103" s="5">
         <v>42</v>
@@ -6104,7 +6141,7 @@
         <v>42</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E103" s="5">
         <v>3</v>
@@ -6119,8 +6156,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
+    <row r="104" spans="1:8">
+      <c r="A104" s="9">
         <v>43</v>
       </c>
       <c r="B104" s="5">
@@ -6130,7 +6167,7 @@
         <v>43</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E104" s="5">
         <v>3</v>
@@ -6145,18 +6182,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
-        <v>189</v>
+    <row r="105" spans="1:8">
+      <c r="A105" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E105" s="5">
         <v>4</v>
@@ -6171,8 +6208,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="6">
+    <row r="106" spans="1:8">
+      <c r="A106" s="9">
         <v>43.333333333333336</v>
       </c>
       <c r="B106" s="5">
@@ -6182,7 +6219,7 @@
         <v>43</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E106" s="5">
         <v>3</v>
@@ -6197,18 +6234,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
-        <v>190</v>
+    <row r="107" spans="1:8">
+      <c r="A107" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E107" s="5">
         <v>4</v>
@@ -6223,9 +6260,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>191</v>
+    <row r="108" spans="1:8">
+      <c r="A108" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="B108" s="5">
         <v>43</v>
@@ -6234,7 +6271,7 @@
         <v>43</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E108" s="5">
         <v>3</v>
@@ -6249,18 +6286,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>192</v>
+    <row r="109" spans="1:8">
+      <c r="A109" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E109" s="5">
         <v>4</v>
@@ -6275,8 +6312,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
+    <row r="110" spans="1:8">
+      <c r="A110" s="9">
         <v>44</v>
       </c>
       <c r="B110" s="5">
@@ -6286,7 +6323,7 @@
         <v>44</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E110" s="5">
         <v>4</v>
@@ -6301,8 +6338,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="6">
+    <row r="111" spans="1:8">
+      <c r="A111" s="9">
         <v>44.666666666666664</v>
       </c>
       <c r="B111" s="5">
@@ -6312,7 +6349,7 @@
         <v>44</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E111" s="5">
         <v>4</v>
@@ -6327,9 +6364,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>194</v>
+    <row r="112" spans="1:8">
+      <c r="A112" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="B112" s="5">
         <v>44</v>
@@ -6338,7 +6375,7 @@
         <v>44</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E112" s="5">
         <v>4</v>
@@ -6353,8 +6390,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="5">
+    <row r="113" spans="1:8">
+      <c r="A113" s="9">
         <v>45</v>
       </c>
       <c r="B113" s="5">
@@ -6364,7 +6401,7 @@
         <v>45</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E113" s="5">
         <v>4</v>
@@ -6379,18 +6416,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>195</v>
+    <row r="114" spans="1:8">
+      <c r="A114" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E114" s="5">
         <v>4</v>
@@ -6405,8 +6442,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="6">
+    <row r="115" spans="1:8">
+      <c r="A115" s="9">
         <v>45.333333333333336</v>
       </c>
       <c r="B115" s="5">
@@ -6416,7 +6453,7 @@
         <v>45</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E115" s="5">
         <v>4</v>
@@ -6431,18 +6468,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>196</v>
+    <row r="116" spans="1:8">
+      <c r="A116" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E116" s="5">
         <v>5</v>
@@ -6457,9 +6494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>197</v>
+    <row r="117" spans="1:8">
+      <c r="A117" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="B117" s="5">
         <v>45</v>
@@ -6468,7 +6505,7 @@
         <v>45</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E117" s="5">
         <v>4</v>
@@ -6483,8 +6520,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
+    <row r="118" spans="1:8">
+      <c r="A118" s="9">
         <v>46</v>
       </c>
       <c r="B118" s="5">
@@ -6494,7 +6531,7 @@
         <v>46</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E118" s="5">
         <v>4</v>
@@ -6509,8 +6546,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="6">
+    <row r="119" spans="1:8">
+      <c r="A119" s="9">
         <v>46.666666666666664</v>
       </c>
       <c r="B119" s="5">
@@ -6520,7 +6557,7 @@
         <v>46</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E119" s="5">
         <v>4</v>
@@ -6535,9 +6572,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>198</v>
+    <row r="120" spans="1:8">
+      <c r="A120" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="B120" s="5">
         <v>46</v>
@@ -6546,7 +6583,7 @@
         <v>46</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E120" s="5">
         <v>4</v>
@@ -6561,8 +6598,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="5">
+    <row r="121" spans="1:8">
+      <c r="A121" s="9">
         <v>47</v>
       </c>
       <c r="B121" s="5">
@@ -6572,7 +6609,7 @@
         <v>47</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E121" s="5">
         <v>5</v>
@@ -6587,18 +6624,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>199</v>
+    <row r="122" spans="1:8">
+      <c r="A122" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E122" s="5">
         <v>6</v>
@@ -6613,8 +6650,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="6">
+    <row r="123" spans="1:8">
+      <c r="A123" s="9">
         <v>47.333333333333336</v>
       </c>
       <c r="B123" s="5">
@@ -6624,7 +6661,7 @@
         <v>47</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E123" s="5">
         <v>5</v>
@@ -6639,9 +6676,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>200</v>
+    <row r="124" spans="1:8">
+      <c r="A124" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="B124" s="5">
         <v>47</v>
@@ -6650,7 +6687,7 @@
         <v>47</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E124" s="5">
         <v>5</v>
@@ -6665,18 +6702,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
-        <v>201</v>
+    <row r="125" spans="1:8">
+      <c r="A125" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E125" s="5">
         <v>5</v>
@@ -6691,8 +6728,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="5">
+    <row r="126" spans="1:8">
+      <c r="A126" s="9">
         <v>48</v>
       </c>
       <c r="B126" s="5">
@@ -6702,7 +6739,7 @@
         <v>48</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E126" s="5">
         <v>5</v>
@@ -6717,8 +6754,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="6">
+    <row r="127" spans="1:8">
+      <c r="A127" s="9">
         <v>48.666666666666664</v>
       </c>
       <c r="B127" s="5">
@@ -6728,7 +6765,7 @@
         <v>48</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E127" s="5">
         <v>5</v>
@@ -6743,9 +6780,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
-        <v>202</v>
+    <row r="128" spans="1:8">
+      <c r="A128" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="B128" s="5">
         <v>48</v>
@@ -6754,7 +6791,7 @@
         <v>48</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E128" s="5">
         <v>5</v>
@@ -6769,21 +6806,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
-        <v>203</v>
+    <row r="129" spans="1:8">
+      <c r="A129" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F129" s="5">
         <v>0</v>
@@ -6795,21 +6832,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="5">
+    <row r="130" spans="1:8">
+      <c r="A130" s="9">
         <v>5</v>
       </c>
       <c r="B130" s="5">
         <v>5</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F130" s="5">
         <v>0</v>
@@ -6821,18 +6858,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
-        <v>205</v>
+    <row r="131" spans="1:8">
+      <c r="A131" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E131" s="5">
         <v>4</v>
@@ -6847,18 +6884,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
-        <v>206</v>
+    <row r="132" spans="1:8">
+      <c r="A132" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E132" s="5">
         <v>5</v>
@@ -6873,18 +6910,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
-        <v>207</v>
+    <row r="133" spans="1:8">
+      <c r="A133" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E133" s="5">
         <v>5</v>
@@ -6899,21 +6936,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="5">
+    <row r="134" spans="1:8">
+      <c r="A134" s="9">
         <v>6</v>
       </c>
       <c r="B134" s="5">
         <v>6</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F134" s="5">
         <v>0</v>
@@ -6925,18 +6962,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
-        <v>208</v>
+    <row r="135" spans="1:8">
+      <c r="A135" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E135" s="5">
         <v>6</v>
@@ -6951,21 +6988,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
-        <v>209</v>
+    <row r="136" spans="1:8">
+      <c r="A136" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F136" s="5">
         <v>1</v>
@@ -6977,21 +7014,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="5">
+    <row r="137" spans="1:8">
+      <c r="A137" s="9">
         <v>7</v>
       </c>
       <c r="B137" s="5">
         <v>7</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -7003,21 +7040,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
-        <v>210</v>
+    <row r="138" spans="1:8">
+      <c r="A138" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F138" s="5">
         <v>0</v>
@@ -7029,21 +7066,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="5">
+    <row r="139" spans="1:8">
+      <c r="A139" s="9">
         <v>8</v>
       </c>
       <c r="B139" s="5">
         <v>8</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F139" s="5">
         <v>0</v>
@@ -7055,21 +7092,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
-        <v>212</v>
+    <row r="140" spans="1:8">
+      <c r="A140" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F140" s="5">
         <v>0</v>
@@ -7081,21 +7118,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="5">
+    <row r="141" spans="1:8">
+      <c r="A141" s="9">
         <v>9</v>
       </c>
       <c r="B141" s="5">
         <v>9</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F141" s="5">
         <v>0</v>
@@ -7107,21 +7144,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
-        <v>118</v>
+    <row r="142" spans="1:8">
+      <c r="A142" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F142" s="5">
         <v>0</v>
@@ -7133,70 +7170,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
+    <row r="143" spans="1:8">
+      <c r="A143" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F143" s="5">
+        <v>1</v>
+      </c>
+      <c r="G143" s="5">
+        <v>2</v>
+      </c>
+      <c r="H143" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B144" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0</v>
+      </c>
+      <c r="G144" s="5">
+        <v>2</v>
+      </c>
+      <c r="H144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F143" s="5">
-        <v>1</v>
-      </c>
-      <c r="G143" s="5">
-        <v>2</v>
-      </c>
-      <c r="H143" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F144" s="5">
-        <v>0</v>
-      </c>
-      <c r="G144" s="5">
-        <v>2</v>
-      </c>
-      <c r="H144" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="B145" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E145" s="5">
         <v>4</v>
@@ -7211,18 +7248,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
-        <v>218</v>
+    <row r="146" spans="1:8">
+      <c r="A146" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E146" s="5">
         <v>5</v>
@@ -7237,21 +7274,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
-        <v>219</v>
+    <row r="147" spans="1:8">
+      <c r="A147" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F147" s="5">
         <v>0</v>
@@ -7263,18 +7300,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
-        <v>220</v>
+    <row r="148" spans="1:8">
+      <c r="A148" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E148" s="5">
         <v>4</v>
@@ -7289,70 +7326,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
+    <row r="149" spans="1:8">
+      <c r="A149" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F149" s="5">
+        <v>0</v>
+      </c>
+      <c r="G149" s="5">
+        <v>1</v>
+      </c>
+      <c r="H149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B150" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F150" s="5">
+        <v>0</v>
+      </c>
+      <c r="G150" s="5">
+        <v>1</v>
+      </c>
+      <c r="H150" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F149" s="5">
-        <v>0</v>
-      </c>
-      <c r="G149" s="5">
-        <v>1</v>
-      </c>
-      <c r="H149" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F150" s="5">
-        <v>0</v>
-      </c>
-      <c r="G150" s="5">
-        <v>1</v>
-      </c>
-      <c r="H150" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="B151" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E151" s="5">
         <v>5</v>
@@ -7367,21 +7404,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
-        <v>106</v>
+    <row r="152" spans="1:8">
+      <c r="A152" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F152" s="5">
         <v>0</v>
@@ -7393,44 +7430,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
+    <row r="153" spans="1:8">
+      <c r="A153" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F153" s="5">
+        <v>1</v>
+      </c>
+      <c r="G153" s="5">
+        <v>1</v>
+      </c>
+      <c r="H153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B153" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F153" s="5">
-        <v>1</v>
-      </c>
-      <c r="G153" s="5">
-        <v>1</v>
-      </c>
-      <c r="H153" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="B154" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E154" s="5">
         <v>3</v>
@@ -7445,70 +7482,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
+    <row r="155" spans="1:8">
+      <c r="A155" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F155" s="5">
+        <v>0</v>
+      </c>
+      <c r="G155" s="5">
+        <v>1</v>
+      </c>
+      <c r="H155" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F156" s="5">
+        <v>0</v>
+      </c>
+      <c r="G156" s="5">
+        <v>1</v>
+      </c>
+      <c r="H156" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F155" s="5">
-        <v>0</v>
-      </c>
-      <c r="G155" s="5">
-        <v>1</v>
-      </c>
-      <c r="H155" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F156" s="5">
-        <v>0</v>
-      </c>
-      <c r="G156" s="5">
-        <v>1</v>
-      </c>
-      <c r="H156" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="B157" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E157" s="5">
         <v>3</v>
@@ -7523,177 +7560,177 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
+    <row r="158" spans="1:8">
+      <c r="A158" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F158" s="5">
+        <v>0</v>
+      </c>
+      <c r="G158" s="5">
+        <v>2</v>
+      </c>
+      <c r="H158" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F159" s="5">
+        <v>0</v>
+      </c>
+      <c r="G159" s="5">
+        <v>1</v>
+      </c>
+      <c r="H159" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B158" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F158" s="5">
-        <v>0</v>
-      </c>
-      <c r="G158" s="5">
-        <v>2</v>
-      </c>
-      <c r="H158" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F159" s="5">
-        <v>0</v>
-      </c>
-      <c r="G159" s="5">
-        <v>1</v>
-      </c>
-      <c r="H159" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
+      <c r="C160" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F160" s="5">
+        <v>1</v>
+      </c>
+      <c r="G160" s="5">
+        <v>1</v>
+      </c>
+      <c r="H160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B161" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E161" s="5">
+        <v>1</v>
+      </c>
+      <c r="F161" s="5">
+        <v>0</v>
+      </c>
+      <c r="G161" s="5">
+        <v>2</v>
+      </c>
+      <c r="H161" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1</v>
-      </c>
-      <c r="G160" s="5">
-        <v>1</v>
-      </c>
-      <c r="H160" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
+      <c r="B162" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F162" s="5">
+        <v>0</v>
+      </c>
+      <c r="G162" s="5">
+        <v>2</v>
+      </c>
+      <c r="H162" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E161" s="5">
-        <v>1</v>
-      </c>
-      <c r="F161" s="5">
-        <v>0</v>
-      </c>
-      <c r="G161" s="5">
-        <v>2</v>
-      </c>
-      <c r="H161" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
+      <c r="B163" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F163" s="5">
+        <v>0</v>
+      </c>
+      <c r="G163" s="5">
+        <v>2</v>
+      </c>
+      <c r="H163" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B164" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B162" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F162" s="5">
-        <v>0</v>
-      </c>
-      <c r="G162" s="5">
-        <v>2</v>
-      </c>
-      <c r="H162" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F163" s="5">
-        <v>0</v>
-      </c>
-      <c r="G163" s="5">
-        <v>2</v>
-      </c>
-      <c r="H163" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="C164" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F164" s="5">
         <v>0</v>
@@ -7705,21 +7742,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
-        <v>238</v>
+    <row r="165" spans="1:8">
+      <c r="A165" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F165" s="5">
         <v>1</v>
@@ -7731,21 +7768,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
-        <v>240</v>
+    <row r="166" spans="1:8">
+      <c r="A166" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F166" s="5">
         <v>0</v>
@@ -7757,18 +7794,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
-        <v>241</v>
+    <row r="167" spans="1:8">
+      <c r="A167" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E167" s="5">
         <v>5</v>
@@ -7783,18 +7820,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
-        <v>242</v>
+    <row r="168" spans="1:8">
+      <c r="A168" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E168" s="5">
         <v>6</v>
@@ -7809,281 +7846,281 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
+    <row r="169" spans="1:8">
+      <c r="A169" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F169" s="5">
+        <v>0</v>
+      </c>
+      <c r="G169" s="5">
+        <v>2</v>
+      </c>
+      <c r="H169" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F170" s="5">
+        <v>0</v>
+      </c>
+      <c r="G170" s="5">
+        <v>1</v>
+      </c>
+      <c r="H170" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B171" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C169" s="5" t="s">
+      <c r="C171" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F171" s="5">
+        <v>1</v>
+      </c>
+      <c r="G171" s="5">
+        <v>1</v>
+      </c>
+      <c r="H171" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0</v>
+      </c>
+      <c r="F172" s="5">
+        <v>0</v>
+      </c>
+      <c r="G172" s="5">
+        <v>1</v>
+      </c>
+      <c r="H172" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F173" s="5">
+        <v>0</v>
+      </c>
+      <c r="G173" s="5">
+        <v>1</v>
+      </c>
+      <c r="H173" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F174" s="5">
+        <v>0</v>
+      </c>
+      <c r="G174" s="5">
+        <v>1</v>
+      </c>
+      <c r="H174" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F175" s="5">
+        <v>0</v>
+      </c>
+      <c r="G175" s="5">
+        <v>1</v>
+      </c>
+      <c r="H175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F176" s="5">
+        <v>1</v>
+      </c>
+      <c r="G176" s="5">
+        <v>2</v>
+      </c>
+      <c r="H176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F177" s="5">
+        <v>1</v>
+      </c>
+      <c r="G177" s="5">
+        <v>1</v>
+      </c>
+      <c r="H177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E178" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F169" s="5">
-        <v>0</v>
-      </c>
-      <c r="G169" s="5">
-        <v>2</v>
-      </c>
-      <c r="H169" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F170" s="5">
-        <v>0</v>
-      </c>
-      <c r="G170" s="5">
-        <v>1</v>
-      </c>
-      <c r="H170" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F171" s="5">
-        <v>1</v>
-      </c>
-      <c r="G171" s="5">
-        <v>1</v>
-      </c>
-      <c r="H171" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E172" s="5">
-        <v>0</v>
-      </c>
-      <c r="F172" s="5">
-        <v>0</v>
-      </c>
-      <c r="G172" s="5">
-        <v>1</v>
-      </c>
-      <c r="H172" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F173" s="5">
-        <v>0</v>
-      </c>
-      <c r="G173" s="5">
-        <v>1</v>
-      </c>
-      <c r="H173" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F174" s="5">
-        <v>0</v>
-      </c>
-      <c r="G174" s="5">
-        <v>1</v>
-      </c>
-      <c r="H174" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F175" s="5">
-        <v>0</v>
-      </c>
-      <c r="G175" s="5">
-        <v>1</v>
-      </c>
-      <c r="H175" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F176" s="5">
-        <v>1</v>
-      </c>
-      <c r="G176" s="5">
-        <v>2</v>
-      </c>
-      <c r="H176" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F177" s="5">
-        <v>1</v>
-      </c>
-      <c r="G177" s="5">
-        <v>1</v>
-      </c>
-      <c r="H177" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
+      <c r="F178" s="5">
+        <v>1</v>
+      </c>
+      <c r="G178" s="5">
+        <v>1</v>
+      </c>
+      <c r="H178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B179" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F178" s="5">
-        <v>1</v>
-      </c>
-      <c r="G178" s="5">
-        <v>1</v>
-      </c>
-      <c r="H178" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="C179" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F179" s="5">
         <v>1</v>
@@ -8098,116 +8135,473 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A11">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A34">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>270</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>271</v>
-      </c>
-      <c r="C1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" t="s">
-        <v>274</v>
       </c>
       <c r="C2">
         <v>12.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="C3">
         <v>48.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="C4">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C5">
         <v>12.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="C6">
         <v>44.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="C7">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C8">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="C9">
         <v>82.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="C10">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C11">
         <v>10.99</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="C12">
         <v>23.99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="C13">
         <v>51.99</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="C14">
         <v>107.99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="C15">
         <v>132.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16">
+        <v>12938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17">
+        <v>17662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18">
+        <v>20896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23">
+        <v>64.5</v>
       </c>
     </row>
   </sheetData>
@@ -8217,7 +8611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -8225,12 +8619,12 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="C1">
         <v>2014</v>
       </c>
@@ -8244,12 +8638,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>0.16300000000000001</v>
@@ -8264,12 +8658,12 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>0.105</v>
@@ -8284,12 +8678,12 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2">
         <v>7.1999999999999995E-2</v>
@@ -8304,12 +8698,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>4.5999999999999999E-2</v>
@@ -8324,52 +8718,52 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2">
         <v>0.14499999999999999</v>
@@ -8384,9 +8778,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -8395,7 +8789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -8403,209 +8797,209 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/users/XiaodanLyu/feature_engineering/fct_relabel.xlsx
+++ b/users/XiaodanLyu/feature_engineering/fct_relabel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="698" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="698" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,15 @@
     <sheet name="brand_survey" sheetId="3" r:id="rId8"/>
     <sheet name="brand_others" sheetId="5" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">size!$A$1:$H$179</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="313">
   <si>
     <t>old_levels</t>
   </si>
@@ -1000,6 +1003,18 @@
   </si>
   <si>
     <t>top6</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>extra</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3463,9 +3478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3523,11 +3538,11 @@
       <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3549,11 +3564,11 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
+      <c r="G3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3575,11 +3590,11 @@
       <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
+      <c r="G4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3601,11 +3616,11 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
+      <c r="G5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3627,11 +3642,11 @@
       <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
+      <c r="G6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3653,11 +3668,11 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
+      <c r="G7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3679,11 +3694,11 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
+      <c r="G8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3705,11 +3720,11 @@
       <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
+      <c r="G9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3731,11 +3746,11 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
+      <c r="G10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3757,11 +3772,11 @@
       <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
+      <c r="G11" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3783,11 +3798,11 @@
       <c r="F12" s="5">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
+      <c r="G12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3809,11 +3824,11 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
+      <c r="G13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H13" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3835,11 +3850,11 @@
       <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
+      <c r="G14" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3861,11 +3876,11 @@
       <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
+      <c r="G15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H15" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3887,11 +3902,11 @@
       <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
+      <c r="G16" t="s">
+        <v>309</v>
+      </c>
+      <c r="H16" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3913,11 +3928,11 @@
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
+      <c r="G17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H17" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3939,11 +3954,11 @@
       <c r="F18" s="5">
         <v>1</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
+      <c r="G18" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3965,11 +3980,11 @@
       <c r="F19" s="5">
         <v>1</v>
       </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
+      <c r="G19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3991,11 +4006,11 @@
       <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
+      <c r="G20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H20" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4017,11 +4032,11 @@
       <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
+      <c r="G21" t="s">
+        <v>309</v>
+      </c>
+      <c r="H21" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4043,11 +4058,11 @@
       <c r="F22" s="5">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
+      <c r="G22" t="s">
+        <v>309</v>
+      </c>
+      <c r="H22" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4069,11 +4084,11 @@
       <c r="F23" s="5">
         <v>1</v>
       </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
+      <c r="G23" t="s">
+        <v>309</v>
+      </c>
+      <c r="H23" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4095,11 +4110,11 @@
       <c r="F24" s="5">
         <v>0</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
+      <c r="G24" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4121,11 +4136,11 @@
       <c r="F25" s="5">
         <v>1</v>
       </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
+      <c r="G25" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4147,11 +4162,11 @@
       <c r="F26" s="5">
         <v>1</v>
       </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
+      <c r="G26" t="s">
+        <v>309</v>
+      </c>
+      <c r="H26" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4173,11 +4188,11 @@
       <c r="F27" s="5">
         <v>1</v>
       </c>
-      <c r="G27" s="5">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
+      <c r="G27" t="s">
+        <v>310</v>
+      </c>
+      <c r="H27" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4199,11 +4214,11 @@
       <c r="F28" s="5">
         <v>0</v>
       </c>
-      <c r="G28" s="5">
-        <v>3</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
+      <c r="G28" t="s">
+        <v>311</v>
+      </c>
+      <c r="H28" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4225,11 +4240,11 @@
       <c r="F29" s="5">
         <v>1</v>
       </c>
-      <c r="G29" s="5">
-        <v>3</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
+      <c r="G29" t="s">
+        <v>311</v>
+      </c>
+      <c r="H29" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4251,11 +4266,11 @@
       <c r="F30" s="5">
         <v>1</v>
       </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1</v>
+      <c r="G30" t="s">
+        <v>309</v>
+      </c>
+      <c r="H30" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4277,11 +4292,11 @@
       <c r="F31" s="5">
         <v>1</v>
       </c>
-      <c r="G31" s="5">
-        <v>2</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
+      <c r="G31" t="s">
+        <v>310</v>
+      </c>
+      <c r="H31" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4303,11 +4318,11 @@
       <c r="F32" s="5">
         <v>1</v>
       </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5">
-        <v>1</v>
+      <c r="G32" t="s">
+        <v>309</v>
+      </c>
+      <c r="H32" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4329,11 +4344,11 @@
       <c r="F33" s="5">
         <v>1</v>
       </c>
-      <c r="G33" s="5">
-        <v>2</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
+      <c r="G33" t="s">
+        <v>310</v>
+      </c>
+      <c r="H33" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4355,11 +4370,11 @@
       <c r="F34" s="5">
         <v>1</v>
       </c>
-      <c r="G34" s="5">
-        <v>2</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1</v>
+      <c r="G34" t="s">
+        <v>310</v>
+      </c>
+      <c r="H34" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4381,11 +4396,11 @@
       <c r="F35" s="5">
         <v>1</v>
       </c>
-      <c r="G35" s="5">
-        <v>2</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
+      <c r="G35" t="s">
+        <v>310</v>
+      </c>
+      <c r="H35" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4407,11 +4422,11 @@
       <c r="F36" s="5">
         <v>1</v>
       </c>
-      <c r="G36" s="5">
-        <v>2</v>
-      </c>
-      <c r="H36" s="5">
-        <v>1</v>
+      <c r="G36" t="s">
+        <v>310</v>
+      </c>
+      <c r="H36" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4433,11 +4448,11 @@
       <c r="F37" s="5">
         <v>1</v>
       </c>
-      <c r="G37" s="5">
-        <v>2</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1</v>
+      <c r="G37" t="s">
+        <v>310</v>
+      </c>
+      <c r="H37" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4459,11 +4474,11 @@
       <c r="F38" s="5">
         <v>1</v>
       </c>
-      <c r="G38" s="5">
-        <v>2</v>
-      </c>
-      <c r="H38" s="5">
-        <v>1</v>
+      <c r="G38" t="s">
+        <v>310</v>
+      </c>
+      <c r="H38" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4485,11 +4500,11 @@
       <c r="F39" s="5">
         <v>0</v>
       </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1</v>
+      <c r="G39" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4511,11 +4526,11 @@
       <c r="F40" s="5">
         <v>0</v>
       </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
-      <c r="H40" s="5">
-        <v>1</v>
+      <c r="G40" t="s">
+        <v>309</v>
+      </c>
+      <c r="H40" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4537,11 +4552,11 @@
       <c r="F41" s="5">
         <v>1</v>
       </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
-        <v>1</v>
+      <c r="G41" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4563,11 +4578,11 @@
       <c r="F42" s="5">
         <v>0</v>
       </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
-      <c r="H42" s="5">
-        <v>1</v>
+      <c r="G42" t="s">
+        <v>309</v>
+      </c>
+      <c r="H42" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4589,11 +4604,11 @@
       <c r="F43" s="5">
         <v>0</v>
       </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
+      <c r="G43" t="s">
+        <v>309</v>
+      </c>
+      <c r="H43" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4615,11 +4630,11 @@
       <c r="F44" s="5">
         <v>0</v>
       </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1</v>
+      <c r="G44" t="s">
+        <v>309</v>
+      </c>
+      <c r="H44" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4641,11 +4656,11 @@
       <c r="F45" s="5">
         <v>0</v>
       </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1</v>
+      <c r="G45" t="s">
+        <v>309</v>
+      </c>
+      <c r="H45" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4667,11 +4682,11 @@
       <c r="F46" s="5">
         <v>1</v>
       </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5">
-        <v>1</v>
+      <c r="G46" t="s">
+        <v>309</v>
+      </c>
+      <c r="H46" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4693,11 +4708,11 @@
       <c r="F47" s="5">
         <v>0</v>
       </c>
-      <c r="G47" s="5">
-        <v>2</v>
-      </c>
-      <c r="H47" s="5">
-        <v>1</v>
+      <c r="G47" t="s">
+        <v>310</v>
+      </c>
+      <c r="H47" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4719,11 +4734,11 @@
       <c r="F48" s="5">
         <v>0</v>
       </c>
-      <c r="G48" s="5">
-        <v>2</v>
-      </c>
-      <c r="H48" s="5">
-        <v>2</v>
+      <c r="G48" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4745,11 +4760,11 @@
       <c r="F49" s="5">
         <v>0</v>
       </c>
-      <c r="G49" s="5">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5">
-        <v>1</v>
+      <c r="G49" t="s">
+        <v>309</v>
+      </c>
+      <c r="H49" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4771,11 +4786,11 @@
       <c r="F50" s="5">
         <v>0</v>
       </c>
-      <c r="G50" s="5">
-        <v>3</v>
-      </c>
-      <c r="H50" s="5">
-        <v>2</v>
+      <c r="G50" t="s">
+        <v>311</v>
+      </c>
+      <c r="H50" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4797,11 +4812,11 @@
       <c r="F51" s="5">
         <v>0</v>
       </c>
-      <c r="G51" s="5">
-        <v>2</v>
-      </c>
-      <c r="H51" s="5">
-        <v>2</v>
+      <c r="G51" t="s">
+        <v>310</v>
+      </c>
+      <c r="H51" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4823,11 +4838,11 @@
       <c r="F52" s="5">
         <v>0</v>
       </c>
-      <c r="G52" s="5">
-        <v>1</v>
-      </c>
-      <c r="H52" s="5">
-        <v>1</v>
+      <c r="G52" t="s">
+        <v>309</v>
+      </c>
+      <c r="H52" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4849,11 +4864,11 @@
       <c r="F53" s="5">
         <v>1</v>
       </c>
-      <c r="G53" s="5">
-        <v>2</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1</v>
+      <c r="G53" t="s">
+        <v>310</v>
+      </c>
+      <c r="H53" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4875,11 +4890,11 @@
       <c r="F54" s="5">
         <v>0</v>
       </c>
-      <c r="G54" s="5">
-        <v>2</v>
-      </c>
-      <c r="H54" s="5">
-        <v>1</v>
+      <c r="G54" t="s">
+        <v>310</v>
+      </c>
+      <c r="H54" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4901,11 +4916,11 @@
       <c r="F55" s="5">
         <v>0</v>
       </c>
-      <c r="G55" s="5">
-        <v>2</v>
-      </c>
-      <c r="H55" s="5">
-        <v>1</v>
+      <c r="G55" t="s">
+        <v>310</v>
+      </c>
+      <c r="H55" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4927,11 +4942,11 @@
       <c r="F56" s="5">
         <v>0</v>
       </c>
-      <c r="G56" s="5">
-        <v>2</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1</v>
+      <c r="G56" t="s">
+        <v>310</v>
+      </c>
+      <c r="H56" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4953,11 +4968,11 @@
       <c r="F57" s="5">
         <v>0</v>
       </c>
-      <c r="G57" s="5">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1</v>
+      <c r="G57" t="s">
+        <v>309</v>
+      </c>
+      <c r="H57" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4979,11 +4994,11 @@
       <c r="F58" s="5">
         <v>0</v>
       </c>
-      <c r="G58" s="5">
-        <v>1</v>
-      </c>
-      <c r="H58" s="5">
-        <v>1</v>
+      <c r="G58" t="s">
+        <v>309</v>
+      </c>
+      <c r="H58" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5005,11 +5020,11 @@
       <c r="F59" s="5">
         <v>0</v>
       </c>
-      <c r="G59" s="5">
-        <v>3</v>
-      </c>
-      <c r="H59" s="5">
-        <v>2</v>
+      <c r="G59" t="s">
+        <v>311</v>
+      </c>
+      <c r="H59" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5031,11 +5046,11 @@
       <c r="F60" s="5">
         <v>0</v>
       </c>
-      <c r="G60" s="5">
-        <v>1</v>
-      </c>
-      <c r="H60" s="5">
-        <v>1</v>
+      <c r="G60" t="s">
+        <v>309</v>
+      </c>
+      <c r="H60" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5057,11 +5072,11 @@
       <c r="F61" s="5">
         <v>0</v>
       </c>
-      <c r="G61" s="5">
-        <v>1</v>
-      </c>
-      <c r="H61" s="5">
-        <v>2</v>
+      <c r="G61" t="s">
+        <v>309</v>
+      </c>
+      <c r="H61" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5083,11 +5098,11 @@
       <c r="F62" s="5">
         <v>0</v>
       </c>
-      <c r="G62" s="5">
-        <v>1</v>
-      </c>
-      <c r="H62" s="5">
-        <v>1</v>
+      <c r="G62" t="s">
+        <v>309</v>
+      </c>
+      <c r="H62" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5109,11 +5124,11 @@
       <c r="F63" s="5">
         <v>0</v>
       </c>
-      <c r="G63" s="5">
-        <v>1</v>
-      </c>
-      <c r="H63" s="5">
-        <v>1</v>
+      <c r="G63" t="s">
+        <v>309</v>
+      </c>
+      <c r="H63" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5135,11 +5150,11 @@
       <c r="F64" s="5">
         <v>0</v>
       </c>
-      <c r="G64" s="5">
-        <v>1</v>
-      </c>
-      <c r="H64" s="5">
-        <v>2</v>
+      <c r="G64" t="s">
+        <v>309</v>
+      </c>
+      <c r="H64" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -5161,11 +5176,11 @@
       <c r="F65" s="5">
         <v>0</v>
       </c>
-      <c r="G65" s="5">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5">
-        <v>1</v>
+      <c r="G65" t="s">
+        <v>309</v>
+      </c>
+      <c r="H65" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5187,11 +5202,11 @@
       <c r="F66" s="5">
         <v>0</v>
       </c>
-      <c r="G66" s="5">
-        <v>1</v>
-      </c>
-      <c r="H66" s="5">
-        <v>1</v>
+      <c r="G66" t="s">
+        <v>309</v>
+      </c>
+      <c r="H66" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5213,11 +5228,11 @@
       <c r="F67" s="5">
         <v>0</v>
       </c>
-      <c r="G67" s="5">
-        <v>1</v>
-      </c>
-      <c r="H67" s="5">
-        <v>1</v>
+      <c r="G67" t="s">
+        <v>309</v>
+      </c>
+      <c r="H67" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5239,11 +5254,11 @@
       <c r="F68" s="5">
         <v>0</v>
       </c>
-      <c r="G68" s="5">
-        <v>1</v>
-      </c>
-      <c r="H68" s="5">
-        <v>2</v>
+      <c r="G68" t="s">
+        <v>309</v>
+      </c>
+      <c r="H68" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -5265,11 +5280,11 @@
       <c r="F69" s="5">
         <v>0</v>
       </c>
-      <c r="G69" s="5">
-        <v>1</v>
-      </c>
-      <c r="H69" s="5">
-        <v>1</v>
+      <c r="G69" t="s">
+        <v>309</v>
+      </c>
+      <c r="H69" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5291,11 +5306,11 @@
       <c r="F70" s="5">
         <v>0</v>
       </c>
-      <c r="G70" s="5">
-        <v>1</v>
-      </c>
-      <c r="H70" s="5">
-        <v>1</v>
+      <c r="G70" t="s">
+        <v>309</v>
+      </c>
+      <c r="H70" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5317,11 +5332,11 @@
       <c r="F71" s="5">
         <v>0</v>
       </c>
-      <c r="G71" s="5">
-        <v>1</v>
-      </c>
-      <c r="H71" s="5">
-        <v>2</v>
+      <c r="G71" t="s">
+        <v>309</v>
+      </c>
+      <c r="H71" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5343,11 +5358,11 @@
       <c r="F72" s="5">
         <v>0</v>
       </c>
-      <c r="G72" s="5">
-        <v>1</v>
-      </c>
-      <c r="H72" s="5">
-        <v>2</v>
+      <c r="G72" t="s">
+        <v>309</v>
+      </c>
+      <c r="H72" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5369,11 +5384,11 @@
       <c r="F73" s="5">
         <v>0</v>
       </c>
-      <c r="G73" s="5">
-        <v>1</v>
-      </c>
-      <c r="H73" s="5">
-        <v>1</v>
+      <c r="G73" t="s">
+        <v>309</v>
+      </c>
+      <c r="H73" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5395,11 +5410,11 @@
       <c r="F74" s="5">
         <v>0</v>
       </c>
-      <c r="G74" s="5">
-        <v>1</v>
-      </c>
-      <c r="H74" s="5">
-        <v>1</v>
+      <c r="G74" t="s">
+        <v>309</v>
+      </c>
+      <c r="H74" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -5421,11 +5436,11 @@
       <c r="F75" s="5">
         <v>0</v>
       </c>
-      <c r="G75" s="5">
-        <v>1</v>
-      </c>
-      <c r="H75" s="5">
-        <v>2</v>
+      <c r="G75" t="s">
+        <v>309</v>
+      </c>
+      <c r="H75" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5447,11 +5462,11 @@
       <c r="F76" s="5">
         <v>0</v>
       </c>
-      <c r="G76" s="5">
-        <v>1</v>
-      </c>
-      <c r="H76" s="5">
-        <v>2</v>
+      <c r="G76" t="s">
+        <v>309</v>
+      </c>
+      <c r="H76" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -5473,11 +5488,11 @@
       <c r="F77" s="5">
         <v>0</v>
       </c>
-      <c r="G77" s="5">
-        <v>1</v>
-      </c>
-      <c r="H77" s="5">
-        <v>1</v>
+      <c r="G77" t="s">
+        <v>309</v>
+      </c>
+      <c r="H77" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5499,11 +5514,11 @@
       <c r="F78" s="5">
         <v>0</v>
       </c>
-      <c r="G78" s="5">
-        <v>1</v>
-      </c>
-      <c r="H78" s="5">
-        <v>2</v>
+      <c r="G78" t="s">
+        <v>309</v>
+      </c>
+      <c r="H78" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -5525,11 +5540,11 @@
       <c r="F79" s="5">
         <v>0</v>
       </c>
-      <c r="G79" s="5">
-        <v>1</v>
-      </c>
-      <c r="H79" s="5">
-        <v>2</v>
+      <c r="G79" t="s">
+        <v>309</v>
+      </c>
+      <c r="H79" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5551,11 +5566,11 @@
       <c r="F80" s="5">
         <v>0</v>
       </c>
-      <c r="G80" s="5">
-        <v>2</v>
-      </c>
-      <c r="H80" s="5">
-        <v>1</v>
+      <c r="G80" t="s">
+        <v>310</v>
+      </c>
+      <c r="H80" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5577,11 +5592,11 @@
       <c r="F81" s="5">
         <v>0</v>
       </c>
-      <c r="G81" s="5">
-        <v>1</v>
-      </c>
-      <c r="H81" s="5">
-        <v>1</v>
+      <c r="G81" t="s">
+        <v>309</v>
+      </c>
+      <c r="H81" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5603,11 +5618,11 @@
       <c r="F82" s="5">
         <v>0</v>
       </c>
-      <c r="G82" s="5">
-        <v>2</v>
-      </c>
-      <c r="H82" s="5">
-        <v>1</v>
+      <c r="G82" t="s">
+        <v>310</v>
+      </c>
+      <c r="H82" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5629,11 +5644,11 @@
       <c r="F83" s="5">
         <v>0</v>
       </c>
-      <c r="G83" s="5">
-        <v>1</v>
-      </c>
-      <c r="H83" s="5">
-        <v>2</v>
+      <c r="G83" t="s">
+        <v>309</v>
+      </c>
+      <c r="H83" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5655,11 +5670,11 @@
       <c r="F84" s="5">
         <v>0</v>
       </c>
-      <c r="G84" s="5">
-        <v>2</v>
-      </c>
-      <c r="H84" s="5">
-        <v>1</v>
+      <c r="G84" t="s">
+        <v>310</v>
+      </c>
+      <c r="H84" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5681,11 +5696,11 @@
       <c r="F85" s="5">
         <v>0</v>
       </c>
-      <c r="G85" s="5">
-        <v>1</v>
-      </c>
-      <c r="H85" s="5">
-        <v>2</v>
+      <c r="G85" t="s">
+        <v>309</v>
+      </c>
+      <c r="H85" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5707,11 +5722,11 @@
       <c r="F86" s="5">
         <v>0</v>
       </c>
-      <c r="G86" s="5">
-        <v>2</v>
-      </c>
-      <c r="H86" s="5">
-        <v>1</v>
+      <c r="G86" t="s">
+        <v>310</v>
+      </c>
+      <c r="H86" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5733,11 +5748,11 @@
       <c r="F87" s="5">
         <v>0</v>
       </c>
-      <c r="G87" s="5">
-        <v>3</v>
-      </c>
-      <c r="H87" s="5">
-        <v>2</v>
+      <c r="G87" t="s">
+        <v>311</v>
+      </c>
+      <c r="H87" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5759,11 +5774,11 @@
       <c r="F88" s="5">
         <v>0</v>
       </c>
-      <c r="G88" s="5">
-        <v>2</v>
-      </c>
-      <c r="H88" s="5">
-        <v>2</v>
+      <c r="G88" t="s">
+        <v>310</v>
+      </c>
+      <c r="H88" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5785,11 +5800,11 @@
       <c r="F89" s="5">
         <v>0</v>
       </c>
-      <c r="G89" s="5">
-        <v>1</v>
-      </c>
-      <c r="H89" s="5">
-        <v>1</v>
+      <c r="G89" t="s">
+        <v>309</v>
+      </c>
+      <c r="H89" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5811,11 +5826,11 @@
       <c r="F90" s="5">
         <v>0</v>
       </c>
-      <c r="G90" s="5">
-        <v>2</v>
-      </c>
-      <c r="H90" s="5">
-        <v>1</v>
+      <c r="G90" t="s">
+        <v>310</v>
+      </c>
+      <c r="H90" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5837,11 +5852,11 @@
       <c r="F91" s="5">
         <v>0</v>
       </c>
-      <c r="G91" s="5">
-        <v>2</v>
-      </c>
-      <c r="H91" s="5">
-        <v>1</v>
+      <c r="G91" t="s">
+        <v>310</v>
+      </c>
+      <c r="H91" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5863,11 +5878,11 @@
       <c r="F92" s="5">
         <v>0</v>
       </c>
-      <c r="G92" s="5">
-        <v>3</v>
-      </c>
-      <c r="H92" s="5">
-        <v>1</v>
+      <c r="G92" t="s">
+        <v>311</v>
+      </c>
+      <c r="H92" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5889,11 +5904,11 @@
       <c r="F93" s="5">
         <v>0</v>
       </c>
-      <c r="G93" s="5">
-        <v>3</v>
-      </c>
-      <c r="H93" s="5">
-        <v>1</v>
+      <c r="G93" t="s">
+        <v>311</v>
+      </c>
+      <c r="H93" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5915,11 +5930,11 @@
       <c r="F94" s="5">
         <v>0</v>
       </c>
-      <c r="G94" s="5">
-        <v>2</v>
-      </c>
-      <c r="H94" s="5">
-        <v>1</v>
+      <c r="G94" t="s">
+        <v>310</v>
+      </c>
+      <c r="H94" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5941,11 +5956,11 @@
       <c r="F95" s="5">
         <v>0</v>
       </c>
-      <c r="G95" s="5">
-        <v>2</v>
-      </c>
-      <c r="H95" s="5">
-        <v>2</v>
+      <c r="G95" t="s">
+        <v>310</v>
+      </c>
+      <c r="H95" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5967,11 +5982,11 @@
       <c r="F96" s="5">
         <v>0</v>
       </c>
-      <c r="G96" s="5">
-        <v>2</v>
-      </c>
-      <c r="H96" s="5">
-        <v>2</v>
+      <c r="G96" t="s">
+        <v>310</v>
+      </c>
+      <c r="H96" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5993,11 +6008,11 @@
       <c r="F97" s="5">
         <v>0</v>
       </c>
-      <c r="G97" s="5">
-        <v>2</v>
-      </c>
-      <c r="H97" s="5">
-        <v>1</v>
+      <c r="G97" t="s">
+        <v>310</v>
+      </c>
+      <c r="H97" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6019,11 +6034,11 @@
       <c r="F98" s="5">
         <v>0</v>
       </c>
-      <c r="G98" s="5">
-        <v>2</v>
-      </c>
-      <c r="H98" s="5">
-        <v>1</v>
+      <c r="G98" t="s">
+        <v>310</v>
+      </c>
+      <c r="H98" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6045,11 +6060,11 @@
       <c r="F99" s="5">
         <v>0</v>
       </c>
-      <c r="G99" s="5">
-        <v>2</v>
-      </c>
-      <c r="H99" s="5">
-        <v>2</v>
+      <c r="G99" t="s">
+        <v>310</v>
+      </c>
+      <c r="H99" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6071,11 +6086,11 @@
       <c r="F100" s="5">
         <v>0</v>
       </c>
-      <c r="G100" s="5">
-        <v>2</v>
-      </c>
-      <c r="H100" s="5">
-        <v>2</v>
+      <c r="G100" t="s">
+        <v>310</v>
+      </c>
+      <c r="H100" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6097,11 +6112,11 @@
       <c r="F101" s="5">
         <v>0</v>
       </c>
-      <c r="G101" s="5">
-        <v>2</v>
-      </c>
-      <c r="H101" s="5">
-        <v>1</v>
+      <c r="G101" t="s">
+        <v>310</v>
+      </c>
+      <c r="H101" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6123,11 +6138,11 @@
       <c r="F102" s="5">
         <v>0</v>
       </c>
-      <c r="G102" s="5">
-        <v>2</v>
-      </c>
-      <c r="H102" s="5">
-        <v>2</v>
+      <c r="G102" t="s">
+        <v>310</v>
+      </c>
+      <c r="H102" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6149,11 +6164,11 @@
       <c r="F103" s="5">
         <v>0</v>
       </c>
-      <c r="G103" s="5">
-        <v>2</v>
-      </c>
-      <c r="H103" s="5">
-        <v>2</v>
+      <c r="G103" t="s">
+        <v>310</v>
+      </c>
+      <c r="H103" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6175,11 +6190,11 @@
       <c r="F104" s="5">
         <v>0</v>
       </c>
-      <c r="G104" s="5">
-        <v>3</v>
-      </c>
-      <c r="H104" s="5">
-        <v>1</v>
+      <c r="G104" t="s">
+        <v>311</v>
+      </c>
+      <c r="H104" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6201,11 +6216,11 @@
       <c r="F105" s="5">
         <v>0</v>
       </c>
-      <c r="G105" s="5">
-        <v>3</v>
-      </c>
-      <c r="H105" s="5">
-        <v>1</v>
+      <c r="G105" t="s">
+        <v>311</v>
+      </c>
+      <c r="H105" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6227,11 +6242,11 @@
       <c r="F106" s="5">
         <v>0</v>
       </c>
-      <c r="G106" s="5">
-        <v>3</v>
-      </c>
-      <c r="H106" s="5">
-        <v>2</v>
+      <c r="G106" t="s">
+        <v>311</v>
+      </c>
+      <c r="H106" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6253,11 +6268,11 @@
       <c r="F107" s="5">
         <v>0</v>
       </c>
-      <c r="G107" s="5">
-        <v>3</v>
-      </c>
-      <c r="H107" s="5">
-        <v>1</v>
+      <c r="G107" t="s">
+        <v>311</v>
+      </c>
+      <c r="H107" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6279,11 +6294,11 @@
       <c r="F108" s="5">
         <v>0</v>
       </c>
-      <c r="G108" s="5">
-        <v>3</v>
-      </c>
-      <c r="H108" s="5">
-        <v>2</v>
+      <c r="G108" t="s">
+        <v>311</v>
+      </c>
+      <c r="H108" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -6305,11 +6320,11 @@
       <c r="F109" s="5">
         <v>0</v>
       </c>
-      <c r="G109" s="5">
-        <v>3</v>
-      </c>
-      <c r="H109" s="5">
-        <v>1</v>
+      <c r="G109" t="s">
+        <v>311</v>
+      </c>
+      <c r="H109" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -6331,11 +6346,11 @@
       <c r="F110" s="5">
         <v>0</v>
       </c>
-      <c r="G110" s="5">
-        <v>3</v>
-      </c>
-      <c r="H110" s="5">
-        <v>1</v>
+      <c r="G110" t="s">
+        <v>311</v>
+      </c>
+      <c r="H110" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6357,11 +6372,11 @@
       <c r="F111" s="5">
         <v>0</v>
       </c>
-      <c r="G111" s="5">
-        <v>3</v>
-      </c>
-      <c r="H111" s="5">
-        <v>2</v>
+      <c r="G111" t="s">
+        <v>311</v>
+      </c>
+      <c r="H111" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6383,11 +6398,11 @@
       <c r="F112" s="5">
         <v>0</v>
       </c>
-      <c r="G112" s="5">
-        <v>3</v>
-      </c>
-      <c r="H112" s="5">
-        <v>2</v>
+      <c r="G112" t="s">
+        <v>311</v>
+      </c>
+      <c r="H112" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -6409,11 +6424,11 @@
       <c r="F113" s="5">
         <v>0</v>
       </c>
-      <c r="G113" s="5">
-        <v>3</v>
-      </c>
-      <c r="H113" s="5">
-        <v>1</v>
+      <c r="G113" t="s">
+        <v>311</v>
+      </c>
+      <c r="H113" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -6435,11 +6450,11 @@
       <c r="F114" s="5">
         <v>0</v>
       </c>
-      <c r="G114" s="5">
-        <v>3</v>
-      </c>
-      <c r="H114" s="5">
-        <v>1</v>
+      <c r="G114" t="s">
+        <v>311</v>
+      </c>
+      <c r="H114" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -6461,11 +6476,11 @@
       <c r="F115" s="5">
         <v>0</v>
       </c>
-      <c r="G115" s="5">
-        <v>3</v>
-      </c>
-      <c r="H115" s="5">
-        <v>2</v>
+      <c r="G115" t="s">
+        <v>311</v>
+      </c>
+      <c r="H115" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -6487,11 +6502,11 @@
       <c r="F116" s="5">
         <v>0</v>
       </c>
-      <c r="G116" s="5">
-        <v>3</v>
-      </c>
-      <c r="H116" s="5">
-        <v>1</v>
+      <c r="G116" t="s">
+        <v>311</v>
+      </c>
+      <c r="H116" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -6513,11 +6528,11 @@
       <c r="F117" s="5">
         <v>0</v>
       </c>
-      <c r="G117" s="5">
-        <v>3</v>
-      </c>
-      <c r="H117" s="5">
-        <v>2</v>
+      <c r="G117" t="s">
+        <v>311</v>
+      </c>
+      <c r="H117" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -6539,11 +6554,11 @@
       <c r="F118" s="5">
         <v>0</v>
       </c>
-      <c r="G118" s="5">
-        <v>3</v>
-      </c>
-      <c r="H118" s="5">
-        <v>1</v>
+      <c r="G118" t="s">
+        <v>311</v>
+      </c>
+      <c r="H118" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -6565,11 +6580,11 @@
       <c r="F119" s="5">
         <v>0</v>
       </c>
-      <c r="G119" s="5">
-        <v>3</v>
-      </c>
-      <c r="H119" s="5">
-        <v>2</v>
+      <c r="G119" t="s">
+        <v>311</v>
+      </c>
+      <c r="H119" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -6591,11 +6606,11 @@
       <c r="F120" s="5">
         <v>0</v>
       </c>
-      <c r="G120" s="5">
-        <v>3</v>
-      </c>
-      <c r="H120" s="5">
-        <v>2</v>
+      <c r="G120" t="s">
+        <v>311</v>
+      </c>
+      <c r="H120" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -6617,11 +6632,11 @@
       <c r="F121" s="5">
         <v>0</v>
       </c>
-      <c r="G121" s="5">
-        <v>3</v>
-      </c>
-      <c r="H121" s="5">
-        <v>1</v>
+      <c r="G121" t="s">
+        <v>311</v>
+      </c>
+      <c r="H121" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -6643,11 +6658,11 @@
       <c r="F122" s="5">
         <v>0</v>
       </c>
-      <c r="G122" s="5">
-        <v>3</v>
-      </c>
-      <c r="H122" s="5">
-        <v>2</v>
+      <c r="G122" t="s">
+        <v>311</v>
+      </c>
+      <c r="H122" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -6669,11 +6684,11 @@
       <c r="F123" s="5">
         <v>0</v>
       </c>
-      <c r="G123" s="5">
-        <v>3</v>
-      </c>
-      <c r="H123" s="5">
-        <v>2</v>
+      <c r="G123" t="s">
+        <v>311</v>
+      </c>
+      <c r="H123" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -6695,11 +6710,11 @@
       <c r="F124" s="5">
         <v>0</v>
       </c>
-      <c r="G124" s="5">
-        <v>3</v>
-      </c>
-      <c r="H124" s="5">
-        <v>2</v>
+      <c r="G124" t="s">
+        <v>311</v>
+      </c>
+      <c r="H124" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6721,11 +6736,11 @@
       <c r="F125" s="5">
         <v>0</v>
       </c>
-      <c r="G125" s="5">
-        <v>3</v>
-      </c>
-      <c r="H125" s="5">
-        <v>2</v>
+      <c r="G125" t="s">
+        <v>311</v>
+      </c>
+      <c r="H125" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -6747,11 +6762,11 @@
       <c r="F126" s="5">
         <v>0</v>
       </c>
-      <c r="G126" s="5">
-        <v>3</v>
-      </c>
-      <c r="H126" s="5">
-        <v>2</v>
+      <c r="G126" t="s">
+        <v>311</v>
+      </c>
+      <c r="H126" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6773,11 +6788,11 @@
       <c r="F127" s="5">
         <v>0</v>
       </c>
-      <c r="G127" s="5">
-        <v>3</v>
-      </c>
-      <c r="H127" s="5">
-        <v>2</v>
+      <c r="G127" t="s">
+        <v>311</v>
+      </c>
+      <c r="H127" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6799,11 +6814,11 @@
       <c r="F128" s="5">
         <v>0</v>
       </c>
-      <c r="G128" s="5">
-        <v>3</v>
-      </c>
-      <c r="H128" s="5">
-        <v>2</v>
+      <c r="G128" t="s">
+        <v>311</v>
+      </c>
+      <c r="H128" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6825,11 +6840,11 @@
       <c r="F129" s="5">
         <v>0</v>
       </c>
-      <c r="G129" s="5">
-        <v>3</v>
-      </c>
-      <c r="H129" s="5">
-        <v>2</v>
+      <c r="G129" t="s">
+        <v>311</v>
+      </c>
+      <c r="H129" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6851,11 +6866,11 @@
       <c r="F130" s="5">
         <v>0</v>
       </c>
-      <c r="G130" s="5">
-        <v>2</v>
-      </c>
-      <c r="H130" s="5">
-        <v>1</v>
+      <c r="G130" t="s">
+        <v>310</v>
+      </c>
+      <c r="H130" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6877,11 +6892,11 @@
       <c r="F131" s="5">
         <v>0</v>
       </c>
-      <c r="G131" s="5">
-        <v>2</v>
-      </c>
-      <c r="H131" s="5">
-        <v>1</v>
+      <c r="G131" t="s">
+        <v>310</v>
+      </c>
+      <c r="H131" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6903,11 +6918,11 @@
       <c r="F132" s="5">
         <v>0</v>
       </c>
-      <c r="G132" s="5">
-        <v>2</v>
-      </c>
-      <c r="H132" s="5">
-        <v>1</v>
+      <c r="G132" t="s">
+        <v>310</v>
+      </c>
+      <c r="H132" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6929,11 +6944,11 @@
       <c r="F133" s="5">
         <v>0</v>
       </c>
-      <c r="G133" s="5">
-        <v>2</v>
-      </c>
-      <c r="H133" s="5">
-        <v>2</v>
+      <c r="G133" t="s">
+        <v>310</v>
+      </c>
+      <c r="H133" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6955,11 +6970,11 @@
       <c r="F134" s="5">
         <v>0</v>
       </c>
-      <c r="G134" s="5">
-        <v>2</v>
-      </c>
-      <c r="H134" s="5">
-        <v>1</v>
+      <c r="G134" t="s">
+        <v>310</v>
+      </c>
+      <c r="H134" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6981,11 +6996,11 @@
       <c r="F135" s="5">
         <v>0</v>
       </c>
-      <c r="G135" s="5">
-        <v>3</v>
-      </c>
-      <c r="H135" s="5">
-        <v>2</v>
+      <c r="G135" t="s">
+        <v>311</v>
+      </c>
+      <c r="H135" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7007,11 +7022,11 @@
       <c r="F136" s="5">
         <v>1</v>
       </c>
-      <c r="G136" s="5">
-        <v>1</v>
-      </c>
-      <c r="H136" s="5">
-        <v>1</v>
+      <c r="G136" t="s">
+        <v>309</v>
+      </c>
+      <c r="H136" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7033,11 +7048,11 @@
       <c r="F137" s="5">
         <v>0</v>
       </c>
-      <c r="G137" s="5">
-        <v>2</v>
-      </c>
-      <c r="H137" s="5">
-        <v>1</v>
+      <c r="G137" t="s">
+        <v>310</v>
+      </c>
+      <c r="H137" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7059,11 +7074,11 @@
       <c r="F138" s="5">
         <v>0</v>
       </c>
-      <c r="G138" s="5">
-        <v>2</v>
-      </c>
-      <c r="H138" s="5">
-        <v>1</v>
+      <c r="G138" t="s">
+        <v>310</v>
+      </c>
+      <c r="H138" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7085,11 +7100,11 @@
       <c r="F139" s="5">
         <v>0</v>
       </c>
-      <c r="G139" s="5">
-        <v>2</v>
-      </c>
-      <c r="H139" s="5">
-        <v>1</v>
+      <c r="G139" t="s">
+        <v>310</v>
+      </c>
+      <c r="H139" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7111,11 +7126,11 @@
       <c r="F140" s="5">
         <v>0</v>
       </c>
-      <c r="G140" s="5">
-        <v>3</v>
-      </c>
-      <c r="H140" s="5">
-        <v>2</v>
+      <c r="G140" t="s">
+        <v>311</v>
+      </c>
+      <c r="H140" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7137,11 +7152,11 @@
       <c r="F141" s="5">
         <v>0</v>
       </c>
-      <c r="G141" s="5">
-        <v>2</v>
-      </c>
-      <c r="H141" s="5">
-        <v>1</v>
+      <c r="G141" t="s">
+        <v>310</v>
+      </c>
+      <c r="H141" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7163,11 +7178,11 @@
       <c r="F142" s="5">
         <v>0</v>
       </c>
-      <c r="G142" s="5">
-        <v>2</v>
-      </c>
-      <c r="H142" s="5">
-        <v>1</v>
+      <c r="G142" t="s">
+        <v>310</v>
+      </c>
+      <c r="H142" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7189,11 +7204,11 @@
       <c r="F143" s="5">
         <v>1</v>
       </c>
-      <c r="G143" s="5">
-        <v>2</v>
-      </c>
-      <c r="H143" s="5">
-        <v>1</v>
+      <c r="G143" t="s">
+        <v>310</v>
+      </c>
+      <c r="H143" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7215,11 +7230,11 @@
       <c r="F144" s="5">
         <v>0</v>
       </c>
-      <c r="G144" s="5">
-        <v>2</v>
-      </c>
-      <c r="H144" s="5">
-        <v>1</v>
+      <c r="G144" t="s">
+        <v>310</v>
+      </c>
+      <c r="H144" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7241,11 +7256,11 @@
       <c r="F145" s="5">
         <v>0</v>
       </c>
-      <c r="G145" s="5">
-        <v>2</v>
-      </c>
-      <c r="H145" s="5">
-        <v>1</v>
+      <c r="G145" t="s">
+        <v>310</v>
+      </c>
+      <c r="H145" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -7267,11 +7282,11 @@
       <c r="F146" s="5">
         <v>0</v>
       </c>
-      <c r="G146" s="5">
-        <v>2</v>
-      </c>
-      <c r="H146" s="5">
-        <v>1</v>
+      <c r="G146" t="s">
+        <v>310</v>
+      </c>
+      <c r="H146" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7293,11 +7308,11 @@
       <c r="F147" s="5">
         <v>0</v>
       </c>
-      <c r="G147" s="5">
-        <v>2</v>
-      </c>
-      <c r="H147" s="5">
-        <v>1</v>
+      <c r="G147" t="s">
+        <v>310</v>
+      </c>
+      <c r="H147" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -7319,11 +7334,11 @@
       <c r="F148" s="5">
         <v>0</v>
       </c>
-      <c r="G148" s="5">
-        <v>2</v>
-      </c>
-      <c r="H148" s="5">
-        <v>1</v>
+      <c r="G148" t="s">
+        <v>310</v>
+      </c>
+      <c r="H148" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -7345,11 +7360,11 @@
       <c r="F149" s="5">
         <v>0</v>
       </c>
-      <c r="G149" s="5">
-        <v>1</v>
-      </c>
-      <c r="H149" s="5">
-        <v>1</v>
+      <c r="G149" t="s">
+        <v>309</v>
+      </c>
+      <c r="H149" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -7371,11 +7386,11 @@
       <c r="F150" s="5">
         <v>0</v>
       </c>
-      <c r="G150" s="5">
-        <v>1</v>
-      </c>
-      <c r="H150" s="5">
-        <v>1</v>
+      <c r="G150" t="s">
+        <v>309</v>
+      </c>
+      <c r="H150" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -7397,11 +7412,11 @@
       <c r="F151" s="5">
         <v>0</v>
       </c>
-      <c r="G151" s="5">
-        <v>3</v>
-      </c>
-      <c r="H151" s="5">
-        <v>1</v>
+      <c r="G151" t="s">
+        <v>311</v>
+      </c>
+      <c r="H151" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7423,11 +7438,11 @@
       <c r="F152" s="5">
         <v>0</v>
       </c>
-      <c r="G152" s="5">
-        <v>2</v>
-      </c>
-      <c r="H152" s="5">
-        <v>1</v>
+      <c r="G152" t="s">
+        <v>310</v>
+      </c>
+      <c r="H152" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -7449,11 +7464,11 @@
       <c r="F153" s="5">
         <v>1</v>
       </c>
-      <c r="G153" s="5">
-        <v>1</v>
-      </c>
-      <c r="H153" s="5">
-        <v>1</v>
+      <c r="G153" t="s">
+        <v>309</v>
+      </c>
+      <c r="H153" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -7475,11 +7490,11 @@
       <c r="F154" s="5">
         <v>0</v>
       </c>
-      <c r="G154" s="5">
-        <v>1</v>
-      </c>
-      <c r="H154" s="5">
-        <v>1</v>
+      <c r="G154" t="s">
+        <v>309</v>
+      </c>
+      <c r="H154" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -7501,11 +7516,11 @@
       <c r="F155" s="5">
         <v>0</v>
       </c>
-      <c r="G155" s="5">
-        <v>1</v>
-      </c>
-      <c r="H155" s="5">
-        <v>1</v>
+      <c r="G155" t="s">
+        <v>309</v>
+      </c>
+      <c r="H155" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -7527,11 +7542,11 @@
       <c r="F156" s="5">
         <v>0</v>
       </c>
-      <c r="G156" s="5">
-        <v>1</v>
-      </c>
-      <c r="H156" s="5">
-        <v>1</v>
+      <c r="G156" t="s">
+        <v>309</v>
+      </c>
+      <c r="H156" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -7553,11 +7568,11 @@
       <c r="F157" s="5">
         <v>0</v>
       </c>
-      <c r="G157" s="5">
-        <v>1</v>
-      </c>
-      <c r="H157" s="5">
-        <v>1</v>
+      <c r="G157" t="s">
+        <v>309</v>
+      </c>
+      <c r="H157" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -7579,11 +7594,11 @@
       <c r="F158" s="5">
         <v>0</v>
       </c>
-      <c r="G158" s="5">
-        <v>2</v>
-      </c>
-      <c r="H158" s="5">
-        <v>1</v>
+      <c r="G158" t="s">
+        <v>310</v>
+      </c>
+      <c r="H158" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -7605,11 +7620,11 @@
       <c r="F159" s="5">
         <v>0</v>
       </c>
-      <c r="G159" s="5">
-        <v>1</v>
-      </c>
-      <c r="H159" s="5">
-        <v>1</v>
+      <c r="G159" t="s">
+        <v>309</v>
+      </c>
+      <c r="H159" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -7631,11 +7646,11 @@
       <c r="F160" s="5">
         <v>1</v>
       </c>
-      <c r="G160" s="5">
-        <v>1</v>
-      </c>
-      <c r="H160" s="5">
-        <v>1</v>
+      <c r="G160" t="s">
+        <v>309</v>
+      </c>
+      <c r="H160" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -7657,11 +7672,11 @@
       <c r="F161" s="5">
         <v>0</v>
       </c>
-      <c r="G161" s="5">
-        <v>2</v>
-      </c>
-      <c r="H161" s="5">
-        <v>1</v>
+      <c r="G161" t="s">
+        <v>310</v>
+      </c>
+      <c r="H161" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -7683,11 +7698,11 @@
       <c r="F162" s="5">
         <v>0</v>
       </c>
-      <c r="G162" s="5">
-        <v>2</v>
-      </c>
-      <c r="H162" s="5">
-        <v>1</v>
+      <c r="G162" t="s">
+        <v>310</v>
+      </c>
+      <c r="H162" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -7709,11 +7724,11 @@
       <c r="F163" s="5">
         <v>0</v>
       </c>
-      <c r="G163" s="5">
-        <v>2</v>
-      </c>
-      <c r="H163" s="5">
-        <v>1</v>
+      <c r="G163" t="s">
+        <v>310</v>
+      </c>
+      <c r="H163" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7735,11 +7750,11 @@
       <c r="F164" s="5">
         <v>0</v>
       </c>
-      <c r="G164" s="5">
-        <v>3</v>
-      </c>
-      <c r="H164" s="5">
-        <v>2</v>
+      <c r="G164" t="s">
+        <v>311</v>
+      </c>
+      <c r="H164" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7761,11 +7776,11 @@
       <c r="F165" s="5">
         <v>1</v>
       </c>
-      <c r="G165" s="5">
-        <v>3</v>
-      </c>
-      <c r="H165" s="5">
-        <v>2</v>
+      <c r="G165" t="s">
+        <v>311</v>
+      </c>
+      <c r="H165" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7787,11 +7802,11 @@
       <c r="F166" s="5">
         <v>0</v>
       </c>
-      <c r="G166" s="5">
-        <v>3</v>
-      </c>
-      <c r="H166" s="5">
-        <v>2</v>
+      <c r="G166" t="s">
+        <v>311</v>
+      </c>
+      <c r="H166" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7813,11 +7828,11 @@
       <c r="F167" s="5">
         <v>0</v>
       </c>
-      <c r="G167" s="5">
-        <v>3</v>
-      </c>
-      <c r="H167" s="5">
-        <v>2</v>
+      <c r="G167" t="s">
+        <v>311</v>
+      </c>
+      <c r="H167" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7839,11 +7854,11 @@
       <c r="F168" s="5">
         <v>0</v>
       </c>
-      <c r="G168" s="5">
-        <v>3</v>
-      </c>
-      <c r="H168" s="5">
-        <v>2</v>
+      <c r="G168" t="s">
+        <v>311</v>
+      </c>
+      <c r="H168" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7865,11 +7880,11 @@
       <c r="F169" s="5">
         <v>0</v>
       </c>
-      <c r="G169" s="5">
-        <v>2</v>
-      </c>
-      <c r="H169" s="5">
-        <v>2</v>
+      <c r="G169" t="s">
+        <v>310</v>
+      </c>
+      <c r="H169" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7891,11 +7906,11 @@
       <c r="F170" s="5">
         <v>0</v>
       </c>
-      <c r="G170" s="5">
-        <v>1</v>
-      </c>
-      <c r="H170" s="5">
-        <v>1</v>
+      <c r="G170" t="s">
+        <v>309</v>
+      </c>
+      <c r="H170" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7917,11 +7932,11 @@
       <c r="F171" s="5">
         <v>1</v>
       </c>
-      <c r="G171" s="5">
-        <v>1</v>
-      </c>
-      <c r="H171" s="5">
-        <v>1</v>
+      <c r="G171" t="s">
+        <v>309</v>
+      </c>
+      <c r="H171" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7943,11 +7958,11 @@
       <c r="F172" s="5">
         <v>0</v>
       </c>
-      <c r="G172" s="5">
-        <v>1</v>
-      </c>
-      <c r="H172" s="5">
-        <v>1</v>
+      <c r="G172" t="s">
+        <v>309</v>
+      </c>
+      <c r="H172" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7969,11 +7984,11 @@
       <c r="F173" s="5">
         <v>0</v>
       </c>
-      <c r="G173" s="5">
-        <v>1</v>
-      </c>
-      <c r="H173" s="5">
-        <v>1</v>
+      <c r="G173" t="s">
+        <v>309</v>
+      </c>
+      <c r="H173" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7995,11 +8010,11 @@
       <c r="F174" s="5">
         <v>0</v>
       </c>
-      <c r="G174" s="5">
-        <v>1</v>
-      </c>
-      <c r="H174" s="5">
-        <v>1</v>
+      <c r="G174" t="s">
+        <v>309</v>
+      </c>
+      <c r="H174" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -8021,11 +8036,11 @@
       <c r="F175" s="5">
         <v>0</v>
       </c>
-      <c r="G175" s="5">
-        <v>1</v>
-      </c>
-      <c r="H175" s="5">
-        <v>1</v>
+      <c r="G175" t="s">
+        <v>309</v>
+      </c>
+      <c r="H175" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -8047,11 +8062,11 @@
       <c r="F176" s="5">
         <v>1</v>
       </c>
-      <c r="G176" s="5">
-        <v>2</v>
-      </c>
-      <c r="H176" s="5">
-        <v>1</v>
+      <c r="G176" t="s">
+        <v>310</v>
+      </c>
+      <c r="H176" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -8073,11 +8088,11 @@
       <c r="F177" s="5">
         <v>1</v>
       </c>
-      <c r="G177" s="5">
-        <v>1</v>
-      </c>
-      <c r="H177" s="5">
-        <v>1</v>
+      <c r="G177" t="s">
+        <v>309</v>
+      </c>
+      <c r="H177" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -8099,11 +8114,11 @@
       <c r="F178" s="5">
         <v>1</v>
       </c>
-      <c r="G178" s="5">
-        <v>1</v>
-      </c>
-      <c r="H178" s="5">
-        <v>1</v>
+      <c r="G178" t="s">
+        <v>309</v>
+      </c>
+      <c r="H178" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -8125,11 +8140,11 @@
       <c r="F179" s="5">
         <v>1</v>
       </c>
-      <c r="G179" s="5">
-        <v>2</v>
-      </c>
-      <c r="H179" s="5">
-        <v>2</v>
+      <c r="G179" t="s">
+        <v>310</v>
+      </c>
+      <c r="H179" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
